--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_19_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_19_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>209824.6189287367</v>
+        <v>208145.3969708387</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7310893.191902022</v>
+        <v>7310893.191902055</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>250.8875013875121</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>222.8367013447161</v>
+        <v>222.8367013447145</v>
       </c>
       <c r="E11" t="n">
-        <v>248.2992251441972</v>
+        <v>250.0840297962934</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>275.029705465743</v>
       </c>
       <c r="G11" t="n">
-        <v>280.6526818299032</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>178.9149114046652</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13.28406442165237</v>
+        <v>13.2840644216508</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>78.97624508410541</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>53.77712710897808</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>217.3946284414462</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>237.8847604025022</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>254.3915983800852</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34.6868433739005</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>40.8621587123489</v>
+        <v>40.86215871234731</v>
       </c>
       <c r="D12" t="n">
-        <v>15.59872528867191</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>25.79874017943411</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>13.22287211741704</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>73.0590800516393</v>
+        <v>135.843397168527</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>31.31425854568711</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>37.74776461340429</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>143.8191001499556</v>
+        <v>11.97275987398716</v>
       </c>
       <c r="T12" t="n">
-        <v>194.1181924004609</v>
+        <v>62.27185212449243</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8426899760614</v>
+        <v>93.99634970009299</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>100.9542468734568</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>119.8486428849512</v>
       </c>
       <c r="X12" t="n">
-        <v>73.92664492751064</v>
+        <v>73.92664492750905</v>
       </c>
       <c r="Y12" t="n">
-        <v>73.83635550133752</v>
+        <v>73.83635550133593</v>
       </c>
     </row>
     <row r="13">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.98563990597046</v>
+        <v>47.98563990596887</v>
       </c>
       <c r="C13" t="n">
-        <v>35.400480822661</v>
+        <v>35.4004808226594</v>
       </c>
       <c r="D13" t="n">
-        <v>16.76913274224552</v>
+        <v>16.76913274224393</v>
       </c>
       <c r="E13" t="n">
-        <v>14.58762237060233</v>
+        <v>14.58762237060074</v>
       </c>
       <c r="F13" t="n">
-        <v>13.57470774696441</v>
+        <v>13.57470774696282</v>
       </c>
       <c r="G13" t="n">
-        <v>34.8869888712458</v>
+        <v>34.88698887124421</v>
       </c>
       <c r="H13" t="n">
-        <v>19.19917853512084</v>
+        <v>19.19917853511925</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>120.7448646060484</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>155.2291360253893</v>
+        <v>70.25284453410551</v>
       </c>
       <c r="T13" t="n">
-        <v>90.72565279517214</v>
+        <v>90.72565279517055</v>
       </c>
       <c r="U13" t="n">
-        <v>154.4040899780924</v>
+        <v>154.4040899780908</v>
       </c>
       <c r="V13" t="n">
-        <v>120.2913030478612</v>
+        <v>120.2913030478596</v>
       </c>
       <c r="W13" t="n">
-        <v>154.6766580606242</v>
+        <v>228.551473882007</v>
       </c>
       <c r="X13" t="n">
-        <v>93.86331511307031</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.73831307612795</v>
+        <v>86.73831307612636</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>158.7541647179681</v>
       </c>
       <c r="C14" t="n">
-        <v>233.4265514950407</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>222.8367013447145</v>
       </c>
       <c r="E14" t="n">
-        <v>223.2618664236041</v>
+        <v>250.0840297962933</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>275.0297054657429</v>
       </c>
       <c r="G14" t="n">
-        <v>280.6526818299032</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>178.9149114046652</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>13.28406442165237</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>78.97624508410539</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>119.2750153991268</v>
       </c>
       <c r="V14" t="n">
-        <v>195.9059181941681</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>217.3946284414462</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>237.8847604025006</v>
       </c>
       <c r="Y14" t="n">
-        <v>254.3915983800867</v>
+        <v>254.3915983800851</v>
       </c>
     </row>
     <row r="15">
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.6868433739005</v>
+        <v>34.68684337389888</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>40.86215871234728</v>
       </c>
       <c r="D15" t="n">
-        <v>15.59872528867191</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>25.79874017943411</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1701,7 +1701,7 @@
         <v>135.843397168527</v>
       </c>
       <c r="H15" t="n">
-        <v>97.74744323520987</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.018805009040477</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>143.8191001499556</v>
       </c>
       <c r="T15" t="n">
-        <v>62.27185212449402</v>
+        <v>194.1181924004609</v>
       </c>
       <c r="U15" t="n">
-        <v>124.4110319404399</v>
+        <v>225.8426899760614</v>
       </c>
       <c r="V15" t="n">
-        <v>100.9542468734584</v>
+        <v>104.2888370820659</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>119.8486428849511</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>73.92664492750902</v>
       </c>
       <c r="Y15" t="n">
-        <v>73.83635550133752</v>
+        <v>73.8363555013359</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.98563990597046</v>
+        <v>47.98563990596884</v>
       </c>
       <c r="C16" t="n">
-        <v>35.400480822661</v>
+        <v>35.40048082265938</v>
       </c>
       <c r="D16" t="n">
-        <v>90.6439485636094</v>
+        <v>16.7691327422439</v>
       </c>
       <c r="E16" t="n">
-        <v>14.58762237060233</v>
+        <v>14.58762237060071</v>
       </c>
       <c r="F16" t="n">
-        <v>13.57470774696441</v>
+        <v>13.57470774696279</v>
       </c>
       <c r="G16" t="n">
-        <v>34.8869888712458</v>
+        <v>34.88698887124418</v>
       </c>
       <c r="H16" t="n">
-        <v>19.19917853512084</v>
+        <v>151.0455188110877</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>73.87481582138477</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>70.2528445341071</v>
+        <v>70.25284453410548</v>
       </c>
       <c r="T16" t="n">
-        <v>90.72565279517214</v>
+        <v>90.72565279517052</v>
       </c>
       <c r="U16" t="n">
-        <v>154.4040899780924</v>
+        <v>154.4040899780908</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>120.2913030478595</v>
       </c>
       <c r="W16" t="n">
-        <v>154.6766580606242</v>
+        <v>154.6766580606225</v>
       </c>
       <c r="X16" t="n">
-        <v>93.86331511307031</v>
+        <v>93.86331511306869</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.73831307612795</v>
+        <v>86.73831307612633</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>171.9112563034067</v>
+        <v>171.9112563034051</v>
       </c>
       <c r="C17" t="n">
-        <v>154.4503064109337</v>
+        <v>154.4503064109321</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>143.8604562606075</v>
       </c>
       <c r="E17" t="n">
-        <v>143.231399031437</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>196.0534603816376</v>
+        <v>196.053460381636</v>
       </c>
       <c r="G17" t="n">
-        <v>201.6764367457962</v>
+        <v>201.6764367457946</v>
       </c>
       <c r="H17" t="n">
-        <v>99.93866632055817</v>
+        <v>99.93866632055655</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,22 +1895,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-8.214824782122401e-13</v>
       </c>
       <c r="U17" t="n">
-        <v>40.29877031502145</v>
+        <v>39.66971308583634</v>
       </c>
       <c r="V17" t="n">
-        <v>116.9296731100611</v>
+        <v>116.9296731100594</v>
       </c>
       <c r="W17" t="n">
-        <v>138.4183833573392</v>
+        <v>138.4183833573375</v>
       </c>
       <c r="X17" t="n">
-        <v>158.9085153183952</v>
+        <v>158.9085153183936</v>
       </c>
       <c r="Y17" t="n">
-        <v>175.4153532959797</v>
+        <v>175.4153532959781</v>
       </c>
     </row>
     <row r="18">
@@ -1926,19 +1926,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.843397168527</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>97.74744323520987</v>
       </c>
       <c r="I18" t="n">
         <v>37.74776461340429</v>
@@ -1971,19 +1971,19 @@
         <v>7.018805009040477</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>143.8191001499556</v>
       </c>
       <c r="T18" t="n">
-        <v>194.1181924004609</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>123.1545246383508</v>
+        <v>15.02010461598596</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>63.37569835856485</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>40.87239780084414</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>202.0991848100739</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>11.74940771106513</v>
+        <v>11.74940771106351</v>
       </c>
       <c r="U19" t="n">
-        <v>75.42784489398544</v>
+        <v>108.7064346651382</v>
       </c>
       <c r="V19" t="n">
-        <v>115.5464700722651</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>14.88707002896331</v>
+        <v>14.88707002896169</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.762067992020945</v>
+        <v>7.762067992019325</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>117.1040874721072</v>
+        <v>0.1744143620353782</v>
       </c>
       <c r="C20" t="n">
-        <v>154.4503064109337</v>
+        <v>154.4503064109321</v>
       </c>
       <c r="D20" t="n">
-        <v>143.8604562606091</v>
+        <v>143.8604562606075</v>
       </c>
       <c r="E20" t="n">
-        <v>171.1077847121879</v>
+        <v>171.1077847121863</v>
       </c>
       <c r="F20" t="n">
-        <v>196.0534603816376</v>
+        <v>196.053460381636</v>
       </c>
       <c r="G20" t="n">
-        <v>201.6764367457962</v>
+        <v>201.6764367457946</v>
       </c>
       <c r="H20" t="n">
-        <v>99.93866632055818</v>
+        <v>99.93866632055656</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.620037437533028e-12</v>
       </c>
       <c r="U20" t="n">
-        <v>40.29877031502145</v>
+        <v>40.29877031501982</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>116.9296731100594</v>
       </c>
       <c r="W20" t="n">
-        <v>138.4183833573392</v>
+        <v>138.4183833573375</v>
       </c>
       <c r="X20" t="n">
-        <v>158.9085153183952</v>
+        <v>158.9085153183936</v>
       </c>
       <c r="Y20" t="n">
-        <v>175.4153532959797</v>
+        <v>175.4153532959781</v>
       </c>
     </row>
     <row r="21">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>37.74776461340429</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,19 +2205,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>7.018805009040477</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>107.682408991919</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>15.02010461598758</v>
+        <v>181.0916078398648</v>
       </c>
       <c r="V21" t="n">
-        <v>21.97800178935142</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.22497105902279</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>202.0991848100739</v>
+        <v>128.0773347704736</v>
       </c>
       <c r="T22" t="n">
-        <v>222.571993071139</v>
+        <v>11.74940771106351</v>
       </c>
       <c r="U22" t="n">
-        <v>75.42784489398544</v>
+        <v>286.2504302540593</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>41.31505796375254</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>14.88707002896331</v>
+        <v>14.88707002896169</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.762067992020945</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>171.9112563034067</v>
+        <v>171.9112563034051</v>
       </c>
       <c r="C23" t="n">
-        <v>154.4503064109337</v>
+        <v>154.4503064109321</v>
       </c>
       <c r="D23" t="n">
-        <v>143.8604562606091</v>
+        <v>143.8604562606075</v>
       </c>
       <c r="E23" t="n">
-        <v>171.1077847121879</v>
+        <v>171.1077847121863</v>
       </c>
       <c r="F23" t="n">
-        <v>196.0534603816376</v>
+        <v>196.053460381636</v>
       </c>
       <c r="G23" t="n">
-        <v>201.6764367457962</v>
+        <v>201.6764367457946</v>
       </c>
       <c r="H23" t="n">
-        <v>99.93866632055818</v>
+        <v>99.93866632055656</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,22 +2369,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-1.627142864890629e-12</v>
       </c>
       <c r="U23" t="n">
-        <v>40.29877031502145</v>
+        <v>40.29877031501983</v>
       </c>
       <c r="V23" t="n">
-        <v>116.9296731100611</v>
+        <v>116.9296731100594</v>
       </c>
       <c r="W23" t="n">
-        <v>138.4183833573392</v>
+        <v>138.4183833573375</v>
       </c>
       <c r="X23" t="n">
-        <v>158.9085153183952</v>
+        <v>158.9085153183936</v>
       </c>
       <c r="Y23" t="n">
-        <v>175.4153532959797</v>
+        <v>175.4153532959781</v>
       </c>
     </row>
     <row r="24">
@@ -2406,7 +2406,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>2.843292606514559</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8426899760614</v>
+        <v>83.61677018917132</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>91.13416567390327</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7333291472126</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>120.7448646060484</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>174.5792912630531</v>
       </c>
       <c r="T25" t="n">
-        <v>11.74940771106513</v>
+        <v>222.571993071139</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2504302540593</v>
+        <v>75.42784489398382</v>
       </c>
       <c r="V25" t="n">
-        <v>41.31505796375416</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>75.70041297651716</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>14.88707002896331</v>
+        <v>14.88707002896169</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.762067992020945</v>
+        <v>7.762067992019325</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>231.785006596525</v>
       </c>
       <c r="I26" t="n">
-        <v>23.40940617061011</v>
+        <v>23.4094061706101</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.15415961351221</v>
+        <v>66.15415961351219</v>
       </c>
       <c r="T26" t="n">
         <v>131.8463402759668</v>
@@ -2713,25 +2713,25 @@
         <v>100.8557350978303</v>
       </c>
       <c r="C28" t="n">
-        <v>88.27057601452083</v>
+        <v>88.27057601452081</v>
       </c>
       <c r="D28" t="n">
-        <v>69.63922793410535</v>
+        <v>69.63922793410534</v>
       </c>
       <c r="E28" t="n">
-        <v>67.45771756246216</v>
+        <v>67.45771756246215</v>
       </c>
       <c r="F28" t="n">
-        <v>66.44480293882424</v>
+        <v>66.44480293882422</v>
       </c>
       <c r="G28" t="n">
-        <v>87.75708406310564</v>
+        <v>87.75708406310562</v>
       </c>
       <c r="H28" t="n">
         <v>72.06927372698067</v>
       </c>
       <c r="I28" t="n">
-        <v>38.65325803585879</v>
+        <v>38.65325803585878</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.7686195219414</v>
+        <v>41.76861952194139</v>
       </c>
       <c r="S28" t="n">
         <v>123.1229397259669</v>
@@ -2810,7 +2810,7 @@
         <v>231.785006596525</v>
       </c>
       <c r="I29" t="n">
-        <v>23.40940617061011</v>
+        <v>23.4094061706101</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.15415961351221</v>
+        <v>66.15415961351219</v>
       </c>
       <c r="T29" t="n">
         <v>131.8463402759668</v>
@@ -2950,16 +2950,16 @@
         <v>100.8557350978303</v>
       </c>
       <c r="C31" t="n">
-        <v>88.27057601452083</v>
+        <v>88.27057601452081</v>
       </c>
       <c r="D31" t="n">
-        <v>69.63922793410535</v>
+        <v>69.63922793410534</v>
       </c>
       <c r="E31" t="n">
-        <v>67.45771756246216</v>
+        <v>67.45771756246215</v>
       </c>
       <c r="F31" t="n">
-        <v>66.44480293882424</v>
+        <v>66.44480293882422</v>
       </c>
       <c r="G31" t="n">
         <v>87.75708406310562</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.7686195219414</v>
+        <v>41.76861952194139</v>
       </c>
       <c r="S31" t="n">
         <v>123.1229397259669</v>
@@ -3047,7 +3047,7 @@
         <v>231.785006596525</v>
       </c>
       <c r="I32" t="n">
-        <v>23.40940617061013</v>
+        <v>23.40940617061011</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.15415961351222</v>
+        <v>66.15415961351221</v>
       </c>
       <c r="T32" t="n">
         <v>131.8463402759668</v>
@@ -3187,25 +3187,25 @@
         <v>100.8557350978303</v>
       </c>
       <c r="C34" t="n">
-        <v>88.27057601452084</v>
+        <v>88.27057601452083</v>
       </c>
       <c r="D34" t="n">
-        <v>69.63922793410536</v>
+        <v>69.63922793410535</v>
       </c>
       <c r="E34" t="n">
-        <v>67.45771756246218</v>
+        <v>67.45771756246216</v>
       </c>
       <c r="F34" t="n">
-        <v>66.44480293882425</v>
+        <v>66.44480293882424</v>
       </c>
       <c r="G34" t="n">
-        <v>87.75708406310565</v>
+        <v>87.75708406310562</v>
       </c>
       <c r="H34" t="n">
-        <v>72.0692737269807</v>
+        <v>72.06927372698067</v>
       </c>
       <c r="I34" t="n">
-        <v>38.6532580358588</v>
+        <v>38.65325803585878</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76861952194142</v>
+        <v>41.7686195219414</v>
       </c>
       <c r="S34" t="n">
         <v>123.1229397259669</v>
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>230.2589964852119</v>
+        <v>230.2589964852118</v>
       </c>
       <c r="C35" t="n">
-        <v>212.7980465927389</v>
+        <v>212.7980465927388</v>
       </c>
       <c r="D35" t="n">
-        <v>202.2081964424143</v>
+        <v>202.2081964424142</v>
       </c>
       <c r="E35" t="n">
-        <v>229.4555248939931</v>
+        <v>229.455524893993</v>
       </c>
       <c r="F35" t="n">
-        <v>254.4012005634428</v>
+        <v>254.4012005634427</v>
       </c>
       <c r="G35" t="n">
-        <v>260.0241769276014</v>
+        <v>260.0241769276013</v>
       </c>
       <c r="H35" t="n">
         <v>158.2864065023633</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>58.34774018180516</v>
+        <v>58.34774018180511</v>
       </c>
       <c r="U35" t="n">
-        <v>98.64651049682661</v>
+        <v>98.64651049682655</v>
       </c>
       <c r="V35" t="n">
         <v>175.2774132918662</v>
@@ -3329,10 +3329,10 @@
         <v>196.7661235391443</v>
       </c>
       <c r="X35" t="n">
-        <v>217.2562555002004</v>
+        <v>217.2562555002003</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.7630934777849</v>
+        <v>233.7630934777848</v>
       </c>
     </row>
     <row r="36">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>27.35713500366862</v>
+        <v>27.35713500366856</v>
       </c>
       <c r="C37" t="n">
-        <v>14.77197592035915</v>
+        <v>14.7719759203591</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>28.52748476784793</v>
+        <v>14.2584839689439</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>4.443310181571945</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>49.62433963180526</v>
+        <v>81.43133029931845</v>
       </c>
       <c r="T37" t="n">
-        <v>70.0971478928703</v>
+        <v>70.09714789287024</v>
       </c>
       <c r="U37" t="n">
-        <v>133.7755850757906</v>
+        <v>133.7755850757905</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>99.66279814555926</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>134.0481531583223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>66.10980817382611</v>
+        <v>66.10980817382605</v>
       </c>
     </row>
     <row r="38">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>230.2589964852119</v>
+        <v>230.2589964852118</v>
       </c>
       <c r="C38" t="n">
-        <v>212.7980465927389</v>
+        <v>212.7980465927388</v>
       </c>
       <c r="D38" t="n">
-        <v>202.2081964424143</v>
+        <v>202.2081964424142</v>
       </c>
       <c r="E38" t="n">
-        <v>229.4555248939931</v>
+        <v>229.455524893993</v>
       </c>
       <c r="F38" t="n">
-        <v>254.4012005634428</v>
+        <v>254.4012005634427</v>
       </c>
       <c r="G38" t="n">
-        <v>260.0241769276014</v>
+        <v>260.0241769276013</v>
       </c>
       <c r="H38" t="n">
         <v>158.2864065023633</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>58.34774018180516</v>
+        <v>58.34774018180508</v>
       </c>
       <c r="U38" t="n">
-        <v>98.64651049682661</v>
+        <v>98.64651049682652</v>
       </c>
       <c r="V38" t="n">
-        <v>175.2774132918662</v>
+        <v>175.2774132918661</v>
       </c>
       <c r="W38" t="n">
-        <v>196.7661235391443</v>
+        <v>196.7661235391442</v>
       </c>
       <c r="X38" t="n">
-        <v>217.2562555002004</v>
+        <v>217.2562555002003</v>
       </c>
       <c r="Y38" t="n">
-        <v>233.7630934777849</v>
+        <v>233.7630934777848</v>
       </c>
     </row>
     <row r="39">
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>27.35713500366862</v>
+        <v>27.35713500366853</v>
       </c>
       <c r="C40" t="n">
-        <v>14.77197592035915</v>
+        <v>14.77197592035907</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>61.68679170724889</v>
+        <v>14.25848396894387</v>
       </c>
       <c r="H40" t="n">
-        <v>151.0455188110877</v>
+        <v>45.99898137112477</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>120.7448646060484</v>
       </c>
       <c r="S40" t="n">
-        <v>202.0991848100739</v>
+        <v>49.62433963180517</v>
       </c>
       <c r="T40" t="n">
-        <v>70.0971478928703</v>
+        <v>222.571993071139</v>
       </c>
       <c r="U40" t="n">
-        <v>133.7755850757906</v>
+        <v>133.7755850757905</v>
       </c>
       <c r="V40" t="n">
-        <v>99.66279814555932</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>134.0481531583223</v>
+        <v>134.0481531583222</v>
       </c>
       <c r="X40" t="n">
-        <v>73.23481021076847</v>
+        <v>73.23481021076839</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.10980817382611</v>
+        <v>66.10980817382602</v>
       </c>
     </row>
     <row r="41">
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>230.2589964852119</v>
+        <v>230.2589964852118</v>
       </c>
       <c r="C41" t="n">
-        <v>212.7980465927389</v>
+        <v>212.7980465927388</v>
       </c>
       <c r="D41" t="n">
-        <v>202.2081964424143</v>
+        <v>202.2081964424142</v>
       </c>
       <c r="E41" t="n">
-        <v>229.4555248939931</v>
+        <v>229.455524893993</v>
       </c>
       <c r="F41" t="n">
-        <v>254.4012005634428</v>
+        <v>254.4012005634427</v>
       </c>
       <c r="G41" t="n">
-        <v>260.0241769276014</v>
+        <v>260.0241769276013</v>
       </c>
       <c r="H41" t="n">
         <v>158.2864065023633</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>58.34774018180516</v>
+        <v>58.34774018180508</v>
       </c>
       <c r="U41" t="n">
-        <v>98.64651049682662</v>
+        <v>98.64651049682652</v>
       </c>
       <c r="V41" t="n">
-        <v>175.2774132918662</v>
+        <v>175.2774132918661</v>
       </c>
       <c r="W41" t="n">
-        <v>196.7661235391443</v>
+        <v>196.7661235391442</v>
       </c>
       <c r="X41" t="n">
-        <v>217.2562555002004</v>
+        <v>217.2562555002003</v>
       </c>
       <c r="Y41" t="n">
-        <v>233.7630934777849</v>
+        <v>233.7630934777848</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.018805009039906</v>
+        <v>7.018805009040477</v>
       </c>
       <c r="S42" t="n">
         <v>143.8191001499556</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>27.35713500366853</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>14.77197592035907</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>32.97079494941973</v>
+        <v>14.25848396894387</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>24.75319351217601</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>202.0991848100739</v>
+        <v>49.62433963180517</v>
       </c>
       <c r="T43" t="n">
-        <v>70.0971478928703</v>
+        <v>70.09714789287021</v>
       </c>
       <c r="U43" t="n">
-        <v>133.7755850757906</v>
+        <v>133.7755850757905</v>
       </c>
       <c r="V43" t="n">
-        <v>99.66279814555932</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>134.0481531583223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>73.23481021076847</v>
+        <v>73.23481021076839</v>
       </c>
       <c r="Y43" t="n">
-        <v>66.10980817382611</v>
+        <v>66.10980817382602</v>
       </c>
     </row>
     <row r="44">
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>230.2589964852119</v>
+        <v>230.2589964852118</v>
       </c>
       <c r="C44" t="n">
-        <v>212.7980465927389</v>
+        <v>212.7980465927388</v>
       </c>
       <c r="D44" t="n">
-        <v>202.2081964424143</v>
+        <v>202.2081964424142</v>
       </c>
       <c r="E44" t="n">
-        <v>229.4555248939931</v>
+        <v>229.455524893993</v>
       </c>
       <c r="F44" t="n">
-        <v>254.4012005634404</v>
+        <v>254.4012005634427</v>
       </c>
       <c r="G44" t="n">
-        <v>260.0241769276014</v>
+        <v>260.0241769276013</v>
       </c>
       <c r="H44" t="n">
         <v>158.2864065023633</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>58.34774018180516</v>
+        <v>58.34774018180508</v>
       </c>
       <c r="U44" t="n">
-        <v>98.64651049682661</v>
+        <v>98.64651049682652</v>
       </c>
       <c r="V44" t="n">
-        <v>175.2774132918662</v>
+        <v>175.2774132918661</v>
       </c>
       <c r="W44" t="n">
-        <v>196.7661235391443</v>
+        <v>196.7661235391442</v>
       </c>
       <c r="X44" t="n">
-        <v>217.2562555002004</v>
+        <v>217.2562555002003</v>
       </c>
       <c r="Y44" t="n">
-        <v>233.7630934777849</v>
+        <v>233.7630934777848</v>
       </c>
     </row>
     <row r="45">
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27.35713500366862</v>
+        <v>27.35713500366853</v>
       </c>
       <c r="C46" t="n">
-        <v>14.77197592035915</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>18.71231098047629</v>
       </c>
       <c r="G46" t="n">
-        <v>14.25848396894396</v>
+        <v>14.25848396894387</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>202.0991848100739</v>
+        <v>49.62433963180517</v>
       </c>
       <c r="T46" t="n">
-        <v>70.0971478928703</v>
+        <v>70.09714789287021</v>
       </c>
       <c r="U46" t="n">
-        <v>133.7755850757906</v>
+        <v>133.7755850757905</v>
       </c>
       <c r="V46" t="n">
-        <v>131.469788813072</v>
+        <v>99.66279814555924</v>
       </c>
       <c r="W46" t="n">
-        <v>134.0481531583223</v>
+        <v>134.0481531583222</v>
       </c>
       <c r="X46" t="n">
-        <v>73.23481021076847</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>66.10980817382611</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>968.949483393933</v>
+        <v>784.3504095386493</v>
       </c>
       <c r="C11" t="n">
-        <v>968.949483393933</v>
+        <v>784.3504095386493</v>
       </c>
       <c r="D11" t="n">
-        <v>743.8619062780581</v>
+        <v>559.262832422776</v>
       </c>
       <c r="E11" t="n">
-        <v>493.0546081526064</v>
+        <v>306.652701315409</v>
       </c>
       <c r="F11" t="n">
-        <v>493.0546081526064</v>
+        <v>28.84491801667867</v>
       </c>
       <c r="G11" t="n">
-        <v>209.5670507486637</v>
+        <v>28.84491801667867</v>
       </c>
       <c r="H11" t="n">
-        <v>28.84491801667868</v>
+        <v>28.84491801667867</v>
       </c>
       <c r="I11" t="n">
-        <v>28.84491801667868</v>
+        <v>28.84491801667867</v>
       </c>
       <c r="J11" t="n">
-        <v>85.19169484519375</v>
+        <v>85.19169484519296</v>
       </c>
       <c r="K11" t="n">
-        <v>220.3794251620423</v>
+        <v>220.3794251620417</v>
       </c>
       <c r="L11" t="n">
-        <v>424.9935205948649</v>
+        <v>424.9935205948644</v>
       </c>
       <c r="M11" t="n">
-        <v>684.3355641233961</v>
+        <v>684.3355641233954</v>
       </c>
       <c r="N11" t="n">
-        <v>952.4878414288108</v>
+        <v>952.4878414288102</v>
       </c>
       <c r="O11" t="n">
-        <v>1192.361171737511</v>
+        <v>1192.36117173751</v>
       </c>
       <c r="P11" t="n">
         <v>1362.586508631396</v>
@@ -5066,25 +5066,25 @@
         <v>1442.245900833934</v>
       </c>
       <c r="S11" t="n">
-        <v>1428.827653943376</v>
+        <v>1428.827653943377</v>
       </c>
       <c r="T11" t="n">
-        <v>1428.827653943376</v>
+        <v>1349.053669009937</v>
       </c>
       <c r="U11" t="n">
-        <v>1428.827653943376</v>
+        <v>1294.733338596828</v>
       </c>
       <c r="V11" t="n">
-        <v>1428.827653943376</v>
+        <v>1294.733338596828</v>
       </c>
       <c r="W11" t="n">
-        <v>1209.237120164137</v>
+        <v>1294.733338596828</v>
       </c>
       <c r="X11" t="n">
-        <v>968.949483393933</v>
+        <v>1294.733338596828</v>
       </c>
       <c r="Y11" t="n">
-        <v>968.949483393933</v>
+        <v>1037.772128111894</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>199.0889345313365</v>
+        <v>731.8014204948497</v>
       </c>
       <c r="C12" t="n">
-        <v>157.8140267410851</v>
+        <v>690.5265127045999</v>
       </c>
       <c r="D12" t="n">
-        <v>142.0577385707094</v>
+        <v>541.5921030433486</v>
       </c>
       <c r="E12" t="n">
-        <v>115.9984050561295</v>
+        <v>382.3546480378931</v>
       </c>
       <c r="F12" t="n">
-        <v>102.6419685738901</v>
+        <v>235.8200900647781</v>
       </c>
       <c r="G12" t="n">
-        <v>28.84491801667868</v>
+        <v>98.60453736929625</v>
       </c>
       <c r="H12" t="n">
-        <v>28.84491801667868</v>
+        <v>66.97397318173351</v>
       </c>
       <c r="I12" t="n">
-        <v>28.84491801667868</v>
+        <v>28.84491801667867</v>
       </c>
       <c r="J12" t="n">
-        <v>43.58682532468382</v>
+        <v>168.4169503116885</v>
       </c>
       <c r="K12" t="n">
-        <v>146.9379176954384</v>
+        <v>271.7680426824431</v>
       </c>
       <c r="L12" t="n">
-        <v>332.2287568600505</v>
+        <v>457.0588818470551</v>
       </c>
       <c r="M12" t="n">
-        <v>567.8112947331483</v>
+        <v>692.641419720153</v>
       </c>
       <c r="N12" t="n">
-        <v>824.0376463017749</v>
+        <v>948.8677712887795</v>
       </c>
       <c r="O12" t="n">
-        <v>1036.214904907418</v>
+        <v>1161.045029894422</v>
       </c>
       <c r="P12" t="n">
         <v>1391.253745766729</v>
@@ -5145,25 +5145,25 @@
         <v>1442.245900833934</v>
       </c>
       <c r="S12" t="n">
-        <v>1296.974082500645</v>
+        <v>1430.152203991522</v>
       </c>
       <c r="T12" t="n">
-        <v>1100.895100277958</v>
+        <v>1367.251343259712</v>
       </c>
       <c r="U12" t="n">
-        <v>872.7711710092087</v>
+        <v>1272.30553548184</v>
       </c>
       <c r="V12" t="n">
-        <v>637.6190627774661</v>
+        <v>1170.331548740975</v>
       </c>
       <c r="W12" t="n">
-        <v>383.3817060492644</v>
+        <v>1049.27231350365</v>
       </c>
       <c r="X12" t="n">
-        <v>308.7083273346072</v>
+        <v>974.5989347889945</v>
       </c>
       <c r="Y12" t="n">
-        <v>234.1261500605289</v>
+        <v>900.0167575149178</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>164.6207878033857</v>
+        <v>164.620787803376</v>
       </c>
       <c r="C13" t="n">
-        <v>128.8627263663544</v>
+        <v>128.8627263663463</v>
       </c>
       <c r="D13" t="n">
-        <v>111.9242084448942</v>
+        <v>111.9242084448878</v>
       </c>
       <c r="E13" t="n">
-        <v>97.18923635337673</v>
+        <v>97.18923635337188</v>
       </c>
       <c r="F13" t="n">
-        <v>83.47741034634197</v>
+        <v>83.47741034633873</v>
       </c>
       <c r="G13" t="n">
-        <v>48.23802764811388</v>
+        <v>48.23802764811226</v>
       </c>
       <c r="H13" t="n">
-        <v>28.84491801667868</v>
+        <v>28.84491801667867</v>
       </c>
       <c r="I13" t="n">
-        <v>28.84491801667868</v>
+        <v>28.84491801667867</v>
       </c>
       <c r="J13" t="n">
-        <v>28.84491801667868</v>
+        <v>28.84491801667867</v>
       </c>
       <c r="K13" t="n">
         <v>151.4530484065836</v>
@@ -5221,28 +5221,28 @@
         <v>1199.62985104415</v>
       </c>
       <c r="R13" t="n">
-        <v>1077.66534134107</v>
+        <v>1199.62985104415</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8682342447175</v>
+        <v>1128.66738181778</v>
       </c>
       <c r="T13" t="n">
-        <v>829.2261607142407</v>
+        <v>1037.025308287305</v>
       </c>
       <c r="U13" t="n">
-        <v>673.2624334636422</v>
+        <v>881.0615810367083</v>
       </c>
       <c r="V13" t="n">
-        <v>551.7560667486309</v>
+        <v>759.5552143216986</v>
       </c>
       <c r="W13" t="n">
-        <v>395.517018202546</v>
+        <v>528.6951396934087</v>
       </c>
       <c r="X13" t="n">
-        <v>300.7055887954043</v>
+        <v>300.7055887953914</v>
       </c>
       <c r="Y13" t="n">
-        <v>213.0911311427498</v>
+        <v>213.0911311427385</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>958.4369566501343</v>
+        <v>788.4313257951212</v>
       </c>
       <c r="C14" t="n">
-        <v>722.6525612005983</v>
+        <v>788.4313257951212</v>
       </c>
       <c r="D14" t="n">
-        <v>722.6525612005983</v>
+        <v>563.3437486792479</v>
       </c>
       <c r="E14" t="n">
-        <v>497.1355244090789</v>
+        <v>310.733617571881</v>
       </c>
       <c r="F14" t="n">
-        <v>497.1355244090789</v>
+        <v>32.92583427315063</v>
       </c>
       <c r="G14" t="n">
-        <v>213.6479670051363</v>
+        <v>32.92583427315063</v>
       </c>
       <c r="H14" t="n">
-        <v>32.92583427315123</v>
+        <v>32.92583427315063</v>
       </c>
       <c r="I14" t="n">
-        <v>32.92583427315123</v>
+        <v>32.92583427315063</v>
       </c>
       <c r="J14" t="n">
-        <v>256.6782601220188</v>
+        <v>89.27261110166518</v>
       </c>
       <c r="K14" t="n">
-        <v>391.8659904388674</v>
+        <v>224.4603414185138</v>
       </c>
       <c r="L14" t="n">
-        <v>596.4800858716901</v>
+        <v>629.0393334184624</v>
       </c>
       <c r="M14" t="n">
-        <v>855.8221294002213</v>
+        <v>888.3813769469937</v>
       </c>
       <c r="N14" t="n">
-        <v>1123.974406705636</v>
+        <v>1156.533654252408</v>
       </c>
       <c r="O14" t="n">
-        <v>1363.847737014336</v>
+        <v>1396.406984561108</v>
       </c>
       <c r="P14" t="n">
-        <v>1534.073073908221</v>
+        <v>1566.632321454994</v>
       </c>
       <c r="Q14" t="n">
-        <v>1646.291713657562</v>
+        <v>1646.291713657531</v>
       </c>
       <c r="R14" t="n">
-        <v>1646.291713657562</v>
+        <v>1646.291713657531</v>
       </c>
       <c r="S14" t="n">
-        <v>1632.873466767004</v>
+        <v>1646.291713657531</v>
       </c>
       <c r="T14" t="n">
-        <v>1632.873466767004</v>
+        <v>1566.517728724092</v>
       </c>
       <c r="U14" t="n">
-        <v>1632.873466767004</v>
+        <v>1446.03791518962</v>
       </c>
       <c r="V14" t="n">
-        <v>1434.988700914309</v>
+        <v>1446.03791518962</v>
       </c>
       <c r="W14" t="n">
-        <v>1215.39816713507</v>
+        <v>1446.03791518962</v>
       </c>
       <c r="X14" t="n">
-        <v>1215.39816713507</v>
+        <v>1205.750278419418</v>
       </c>
       <c r="Y14" t="n">
-        <v>958.4369566501343</v>
+        <v>948.789067934483</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.6793870545074</v>
+        <v>666.1227173987041</v>
       </c>
       <c r="C15" t="n">
-        <v>457.2263577733804</v>
+        <v>624.8478096084543</v>
       </c>
       <c r="D15" t="n">
-        <v>441.4700696030047</v>
+        <v>475.913399947203</v>
       </c>
       <c r="E15" t="n">
-        <v>415.4107360884248</v>
+        <v>316.6759449417475</v>
       </c>
       <c r="F15" t="n">
-        <v>268.8761781153097</v>
+        <v>170.1413869686325</v>
       </c>
       <c r="G15" t="n">
-        <v>131.6606254198279</v>
+        <v>32.92583427315063</v>
       </c>
       <c r="H15" t="n">
-        <v>32.92583427315123</v>
+        <v>32.92583427315063</v>
       </c>
       <c r="I15" t="n">
-        <v>32.92583427315123</v>
+        <v>32.92583427315063</v>
       </c>
       <c r="J15" t="n">
-        <v>172.4978665681611</v>
+        <v>172.4978665681605</v>
       </c>
       <c r="K15" t="n">
-        <v>275.8489589389157</v>
+        <v>275.8489589389151</v>
       </c>
       <c r="L15" t="n">
-        <v>461.1397981035277</v>
+        <v>461.1397981035271</v>
       </c>
       <c r="M15" t="n">
-        <v>696.7223359766256</v>
+        <v>696.7223359766249</v>
       </c>
       <c r="N15" t="n">
-        <v>1104.179535106872</v>
+        <v>952.9486875452515</v>
       </c>
       <c r="O15" t="n">
-        <v>1444.34166892506</v>
+        <v>1165.125946150894</v>
       </c>
       <c r="P15" t="n">
-        <v>1595.299558590357</v>
+        <v>1387.323043731836</v>
       </c>
       <c r="Q15" t="n">
-        <v>1646.291713657562</v>
+        <v>1646.291713657531</v>
       </c>
       <c r="R15" t="n">
-        <v>1639.202011628228</v>
+        <v>1646.291713657531</v>
       </c>
       <c r="S15" t="n">
-        <v>1493.930193294939</v>
+        <v>1501.019895324243</v>
       </c>
       <c r="T15" t="n">
-        <v>1431.029332563127</v>
+        <v>1304.940913101555</v>
       </c>
       <c r="U15" t="n">
-        <v>1305.36162353238</v>
+        <v>1076.816983832806</v>
       </c>
       <c r="V15" t="n">
-        <v>1203.387636791512</v>
+        <v>971.4747241539516</v>
       </c>
       <c r="W15" t="n">
-        <v>949.1502800633109</v>
+        <v>850.4154889166272</v>
       </c>
       <c r="X15" t="n">
-        <v>741.2987798577781</v>
+        <v>775.7421102019716</v>
       </c>
       <c r="Y15" t="n">
-        <v>666.7166025836998</v>
+        <v>701.1599329278949</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>243.322730142044</v>
+        <v>376.5008516329318</v>
       </c>
       <c r="C16" t="n">
-        <v>207.5646687050127</v>
+        <v>340.7427901959022</v>
       </c>
       <c r="D16" t="n">
-        <v>116.0051247013668</v>
+        <v>323.8042722744437</v>
       </c>
       <c r="E16" t="n">
-        <v>101.2701526098493</v>
+        <v>309.0693001829278</v>
       </c>
       <c r="F16" t="n">
-        <v>87.55832660281452</v>
+        <v>295.3574741758947</v>
       </c>
       <c r="G16" t="n">
-        <v>52.31894390458643</v>
+        <v>260.1180914776683</v>
       </c>
       <c r="H16" t="n">
-        <v>32.92583427315123</v>
+        <v>107.5468603553575</v>
       </c>
       <c r="I16" t="n">
-        <v>32.92583427315123</v>
+        <v>32.92583427315063</v>
       </c>
       <c r="J16" t="n">
-        <v>32.92583427315123</v>
+        <v>32.92583427315063</v>
       </c>
       <c r="K16" t="n">
-        <v>155.5339646630561</v>
+        <v>155.5339646630555</v>
       </c>
       <c r="L16" t="n">
-        <v>367.9565936632409</v>
+        <v>367.9565936632403</v>
       </c>
       <c r="M16" t="n">
-        <v>602.315595188115</v>
+        <v>602.3155951881143</v>
       </c>
       <c r="N16" t="n">
-        <v>836.5366798967052</v>
+        <v>836.5366798967045</v>
       </c>
       <c r="O16" t="n">
-        <v>1036.861465891697</v>
+        <v>1036.861465891696</v>
       </c>
       <c r="P16" t="n">
         <v>1184.753245257707</v>
       </c>
       <c r="Q16" t="n">
-        <v>1203.710767300622</v>
+        <v>1203.710767300621</v>
       </c>
       <c r="R16" t="n">
-        <v>1203.710767300622</v>
+        <v>1203.710767300621</v>
       </c>
       <c r="S16" t="n">
-        <v>1132.748298074251</v>
+        <v>1132.748298074252</v>
       </c>
       <c r="T16" t="n">
-        <v>1041.106224543774</v>
+        <v>1041.106224543777</v>
       </c>
       <c r="U16" t="n">
-        <v>885.1424972931761</v>
+        <v>885.1424972931802</v>
       </c>
       <c r="V16" t="n">
-        <v>630.4580090872893</v>
+        <v>763.6361305781705</v>
       </c>
       <c r="W16" t="n">
-        <v>474.2189605412042</v>
+        <v>607.3970820320872</v>
       </c>
       <c r="X16" t="n">
-        <v>379.4075311340625</v>
+        <v>512.5856526249471</v>
       </c>
       <c r="Y16" t="n">
-        <v>291.793073481408</v>
+        <v>424.9711949722943</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>836.3099442634166</v>
+        <v>836.9453556060059</v>
       </c>
       <c r="C17" t="n">
-        <v>680.299533747322</v>
+        <v>680.9349450899128</v>
       </c>
       <c r="D17" t="n">
-        <v>680.299533747322</v>
+        <v>535.621352907481</v>
       </c>
       <c r="E17" t="n">
-        <v>535.6213529074867</v>
+        <v>535.621352907481</v>
       </c>
       <c r="F17" t="n">
-        <v>337.5875545421961</v>
+        <v>337.5875545421921</v>
       </c>
       <c r="G17" t="n">
-        <v>133.8739820716948</v>
+        <v>133.8739820716926</v>
       </c>
       <c r="H17" t="n">
-        <v>32.92583427315123</v>
+        <v>32.92583427315063</v>
       </c>
       <c r="I17" t="n">
-        <v>32.92583427315123</v>
+        <v>32.92583427315063</v>
       </c>
       <c r="J17" t="n">
-        <v>256.6782601220188</v>
+        <v>256.6782601220182</v>
       </c>
       <c r="K17" t="n">
-        <v>391.8659904388674</v>
+        <v>424.4252379856397</v>
       </c>
       <c r="L17" t="n">
-        <v>596.4800858716901</v>
+        <v>629.0393334184624</v>
       </c>
       <c r="M17" t="n">
-        <v>855.8221294002213</v>
+        <v>888.3813769469937</v>
       </c>
       <c r="N17" t="n">
-        <v>1123.974406705636</v>
+        <v>1156.533654252408</v>
       </c>
       <c r="O17" t="n">
-        <v>1363.847737014336</v>
+        <v>1396.406984561108</v>
       </c>
       <c r="P17" t="n">
-        <v>1534.073073908221</v>
+        <v>1566.632321454994</v>
       </c>
       <c r="Q17" t="n">
-        <v>1646.291713657562</v>
+        <v>1646.291713657531</v>
       </c>
       <c r="R17" t="n">
-        <v>1646.291713657562</v>
+        <v>1646.291713657531</v>
       </c>
       <c r="S17" t="n">
-        <v>1646.291713657562</v>
+        <v>1646.29171365753</v>
       </c>
       <c r="T17" t="n">
-        <v>1646.291713657562</v>
+        <v>1646.291713657531</v>
       </c>
       <c r="U17" t="n">
-        <v>1605.58588505653</v>
+        <v>1606.221296399111</v>
       </c>
       <c r="V17" t="n">
-        <v>1487.475104137276</v>
+        <v>1488.110515479859</v>
       </c>
       <c r="W17" t="n">
-        <v>1347.658555291479</v>
+        <v>1348.293966634063</v>
       </c>
       <c r="X17" t="n">
-        <v>1187.144903454716</v>
+        <v>1187.780314797302</v>
       </c>
       <c r="Y17" t="n">
-        <v>1009.957677903221</v>
+        <v>1010.593089245809</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>245.5079187193331</v>
+        <v>789.6301272281977</v>
       </c>
       <c r="C18" t="n">
-        <v>71.05488943820608</v>
+        <v>615.1770979470707</v>
       </c>
       <c r="D18" t="n">
-        <v>71.05488943820608</v>
+        <v>466.2426882858194</v>
       </c>
       <c r="E18" t="n">
-        <v>71.05488943820608</v>
+        <v>307.0052332803639</v>
       </c>
       <c r="F18" t="n">
-        <v>71.05488943820608</v>
+        <v>307.0052332803639</v>
       </c>
       <c r="G18" t="n">
-        <v>71.05488943820608</v>
+        <v>169.7896805848821</v>
       </c>
       <c r="H18" t="n">
-        <v>71.05488943820608</v>
+        <v>71.05488943820546</v>
       </c>
       <c r="I18" t="n">
-        <v>32.92583427315123</v>
+        <v>32.92583427315063</v>
       </c>
       <c r="J18" t="n">
-        <v>172.4978665681611</v>
+        <v>172.4978665681605</v>
       </c>
       <c r="K18" t="n">
-        <v>275.8489589389157</v>
+        <v>275.8489589389151</v>
       </c>
       <c r="L18" t="n">
-        <v>461.1397981035277</v>
+        <v>461.1397981035271</v>
       </c>
       <c r="M18" t="n">
-        <v>696.7223359766256</v>
+        <v>696.7223359766249</v>
       </c>
       <c r="N18" t="n">
-        <v>952.9486875452521</v>
+        <v>952.9486875452515</v>
       </c>
       <c r="O18" t="n">
-        <v>1165.125946150895</v>
+        <v>1165.125946150894</v>
       </c>
       <c r="P18" t="n">
-        <v>1387.323043731866</v>
+        <v>1387.323043731836</v>
       </c>
       <c r="Q18" t="n">
-        <v>1646.291713657562</v>
+        <v>1646.291713657531</v>
       </c>
       <c r="R18" t="n">
-        <v>1639.202011628228</v>
+        <v>1639.202011628197</v>
       </c>
       <c r="S18" t="n">
-        <v>1639.202011628228</v>
+        <v>1493.930193294909</v>
       </c>
       <c r="T18" t="n">
-        <v>1443.12302940554</v>
+        <v>1493.930193294909</v>
       </c>
       <c r="U18" t="n">
-        <v>1318.724519669832</v>
+        <v>1478.758370450479</v>
       </c>
       <c r="V18" t="n">
-        <v>1083.572411438089</v>
+        <v>1414.742513522635</v>
       </c>
       <c r="W18" t="n">
-        <v>829.3350547098878</v>
+        <v>1373.457263218752</v>
       </c>
       <c r="X18" t="n">
-        <v>621.483554504355</v>
+        <v>1165.60576301322</v>
       </c>
       <c r="Y18" t="n">
-        <v>413.7232557394011</v>
+        <v>957.8454642482657</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>482.5036523057081</v>
+        <v>333.4101589778545</v>
       </c>
       <c r="C19" t="n">
-        <v>482.5036523057081</v>
+        <v>333.4101589778545</v>
       </c>
       <c r="D19" t="n">
-        <v>332.3870128933723</v>
+        <v>333.4101589778545</v>
       </c>
       <c r="E19" t="n">
-        <v>332.3870128933723</v>
+        <v>185.4970653954614</v>
       </c>
       <c r="F19" t="n">
-        <v>185.497065395462</v>
+        <v>185.4970653954614</v>
       </c>
       <c r="G19" t="n">
-        <v>185.497065395462</v>
+        <v>185.4970653954614</v>
       </c>
       <c r="H19" t="n">
-        <v>32.92583427315123</v>
+        <v>32.92583427315063</v>
       </c>
       <c r="I19" t="n">
-        <v>32.92583427315123</v>
+        <v>32.92583427315063</v>
       </c>
       <c r="J19" t="n">
-        <v>32.92583427315123</v>
+        <v>32.92583427315063</v>
       </c>
       <c r="K19" t="n">
-        <v>155.5339646630561</v>
+        <v>155.5339646630555</v>
       </c>
       <c r="L19" t="n">
-        <v>367.9565936632409</v>
+        <v>367.9565936632403</v>
       </c>
       <c r="M19" t="n">
-        <v>602.315595188115</v>
+        <v>602.3155951881143</v>
       </c>
       <c r="N19" t="n">
-        <v>836.5366798967052</v>
+        <v>836.5366798967045</v>
       </c>
       <c r="O19" t="n">
-        <v>1036.861465891697</v>
+        <v>1036.861465891696</v>
       </c>
       <c r="P19" t="n">
         <v>1184.753245257707</v>
       </c>
       <c r="Q19" t="n">
-        <v>1203.710767300622</v>
+        <v>1203.710767300621</v>
       </c>
       <c r="R19" t="n">
-        <v>1203.710767300622</v>
+        <v>1203.710767300621</v>
       </c>
       <c r="S19" t="n">
-        <v>999.5701765833758</v>
+        <v>1203.710767300621</v>
       </c>
       <c r="T19" t="n">
-        <v>987.7020879863403</v>
+        <v>1191.842678703588</v>
       </c>
       <c r="U19" t="n">
-        <v>911.5123456691833</v>
+        <v>1082.038199243852</v>
       </c>
       <c r="V19" t="n">
-        <v>794.7987395355822</v>
+        <v>827.353711037965</v>
       </c>
       <c r="W19" t="n">
-        <v>505.3815694986215</v>
+        <v>537.9365410010043</v>
       </c>
       <c r="X19" t="n">
-        <v>490.3441250249212</v>
+        <v>522.8990965273057</v>
       </c>
       <c r="Y19" t="n">
-        <v>482.5036523057081</v>
+        <v>515.0586238080942</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1009.781501779942</v>
+        <v>1009.781501779931</v>
       </c>
       <c r="C20" t="n">
-        <v>853.7710912638478</v>
+        <v>853.771091263838</v>
       </c>
       <c r="D20" t="n">
-        <v>708.4574990814143</v>
+        <v>708.4574990814061</v>
       </c>
       <c r="E20" t="n">
-        <v>535.6213529074871</v>
+        <v>535.6213529074805</v>
       </c>
       <c r="F20" t="n">
-        <v>337.5875545421966</v>
+        <v>337.5875545421916</v>
       </c>
       <c r="G20" t="n">
-        <v>133.8739820716949</v>
+        <v>133.8739820716926</v>
       </c>
       <c r="H20" t="n">
-        <v>32.92583427315123</v>
+        <v>32.92583427315063</v>
       </c>
       <c r="I20" t="n">
-        <v>32.92583427315123</v>
+        <v>32.92583427315063</v>
       </c>
       <c r="J20" t="n">
-        <v>256.6782601220188</v>
+        <v>89.27261110166518</v>
       </c>
       <c r="K20" t="n">
-        <v>391.8659904388674</v>
+        <v>224.4603414185138</v>
       </c>
       <c r="L20" t="n">
-        <v>596.4800858716901</v>
+        <v>429.0744368513365</v>
       </c>
       <c r="M20" t="n">
-        <v>855.8221294002213</v>
+        <v>688.4164803798677</v>
       </c>
       <c r="N20" t="n">
-        <v>1123.974406705636</v>
+        <v>956.5687576852824</v>
       </c>
       <c r="O20" t="n">
-        <v>1363.847737014336</v>
+        <v>1196.442087993982</v>
       </c>
       <c r="P20" t="n">
-        <v>1534.073073908221</v>
+        <v>1566.632321454994</v>
       </c>
       <c r="Q20" t="n">
-        <v>1646.291713657562</v>
+        <v>1646.291713657531</v>
       </c>
       <c r="R20" t="n">
-        <v>1646.291713657562</v>
+        <v>1646.291713657531</v>
       </c>
       <c r="S20" t="n">
-        <v>1646.291713657562</v>
+        <v>1646.291713657531</v>
       </c>
       <c r="T20" t="n">
-        <v>1646.291713657562</v>
+        <v>1646.291713657531</v>
       </c>
       <c r="U20" t="n">
-        <v>1605.58588505653</v>
+        <v>1605.585885056501</v>
       </c>
       <c r="V20" t="n">
-        <v>1605.58588505653</v>
+        <v>1487.475104137249</v>
       </c>
       <c r="W20" t="n">
-        <v>1465.769336210733</v>
+        <v>1347.658555291454</v>
       </c>
       <c r="X20" t="n">
-        <v>1305.25568437397</v>
+        <v>1187.144903454693</v>
       </c>
       <c r="Y20" t="n">
-        <v>1128.068458822475</v>
+        <v>1009.9576779032</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>662.0852861941</v>
+        <v>551.279931697903</v>
       </c>
       <c r="C21" t="n">
-        <v>487.632256912973</v>
+        <v>376.826902416776</v>
       </c>
       <c r="D21" t="n">
-        <v>338.6978472517218</v>
+        <v>376.826902416776</v>
       </c>
       <c r="E21" t="n">
-        <v>179.4603922462663</v>
+        <v>217.5894474113205</v>
       </c>
       <c r="F21" t="n">
-        <v>32.92583427315123</v>
+        <v>71.05488943820546</v>
       </c>
       <c r="G21" t="n">
-        <v>32.92583427315123</v>
+        <v>71.05488943820546</v>
       </c>
       <c r="H21" t="n">
-        <v>32.92583427315123</v>
+        <v>71.05488943820546</v>
       </c>
       <c r="I21" t="n">
-        <v>32.92583427315123</v>
+        <v>32.92583427315063</v>
       </c>
       <c r="J21" t="n">
-        <v>172.4978665681611</v>
+        <v>172.4978665681605</v>
       </c>
       <c r="K21" t="n">
-        <v>275.8489589389157</v>
+        <v>537.669543581368</v>
       </c>
       <c r="L21" t="n">
-        <v>461.1397981035277</v>
+        <v>740.355520877662</v>
       </c>
       <c r="M21" t="n">
-        <v>696.7223359766256</v>
+        <v>975.9380587507599</v>
       </c>
       <c r="N21" t="n">
-        <v>952.9486875452521</v>
+        <v>1232.164410319386</v>
       </c>
       <c r="O21" t="n">
-        <v>1165.125946150895</v>
+        <v>1444.341668925029</v>
       </c>
       <c r="P21" t="n">
-        <v>1387.323043731866</v>
+        <v>1595.299558590326</v>
       </c>
       <c r="Q21" t="n">
-        <v>1646.291713657562</v>
+        <v>1646.291713657531</v>
       </c>
       <c r="R21" t="n">
-        <v>1646.291713657562</v>
+        <v>1639.202011628197</v>
       </c>
       <c r="S21" t="n">
-        <v>1646.291713657562</v>
+        <v>1639.202011628197</v>
       </c>
       <c r="T21" t="n">
-        <v>1537.521603564714</v>
+        <v>1639.202011628197</v>
       </c>
       <c r="U21" t="n">
-        <v>1522.349780720282</v>
+        <v>1456.281195628334</v>
       </c>
       <c r="V21" t="n">
-        <v>1500.149778912856</v>
+        <v>1221.129087396591</v>
       </c>
       <c r="W21" t="n">
-        <v>1245.912422184655</v>
+        <v>966.8917306683898</v>
       </c>
       <c r="X21" t="n">
-        <v>1038.060921979122</v>
+        <v>759.0402304628569</v>
       </c>
       <c r="Y21" t="n">
-        <v>830.3006232141681</v>
+        <v>551.279931697903</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>37.41402637574916</v>
+        <v>206.3502093036554</v>
       </c>
       <c r="C22" t="n">
-        <v>37.41402637574916</v>
+        <v>37.41402637574855</v>
       </c>
       <c r="D22" t="n">
-        <v>37.41402637574916</v>
+        <v>37.41402637574855</v>
       </c>
       <c r="E22" t="n">
-        <v>37.41402637574916</v>
+        <v>37.41402637574855</v>
       </c>
       <c r="F22" t="n">
-        <v>37.41402637574916</v>
+        <v>37.41402637574855</v>
       </c>
       <c r="G22" t="n">
-        <v>37.41402637574916</v>
+        <v>37.41402637574855</v>
       </c>
       <c r="H22" t="n">
-        <v>37.41402637574916</v>
+        <v>37.41402637574855</v>
       </c>
       <c r="I22" t="n">
-        <v>37.41402637574916</v>
+        <v>37.41402637574855</v>
       </c>
       <c r="J22" t="n">
-        <v>32.92583427315123</v>
+        <v>32.92583427315063</v>
       </c>
       <c r="K22" t="n">
-        <v>155.5339646630561</v>
+        <v>155.5339646630555</v>
       </c>
       <c r="L22" t="n">
-        <v>367.9565936632409</v>
+        <v>367.9565936632403</v>
       </c>
       <c r="M22" t="n">
-        <v>602.315595188115</v>
+        <v>602.3155951881143</v>
       </c>
       <c r="N22" t="n">
-        <v>836.5366798967052</v>
+        <v>836.5366798967045</v>
       </c>
       <c r="O22" t="n">
-        <v>1036.861465891697</v>
+        <v>1036.861465891696</v>
       </c>
       <c r="P22" t="n">
         <v>1184.753245257707</v>
       </c>
       <c r="Q22" t="n">
-        <v>1203.710767300622</v>
+        <v>1203.710767300621</v>
       </c>
       <c r="R22" t="n">
-        <v>1203.710767300622</v>
+        <v>1203.710767300621</v>
       </c>
       <c r="S22" t="n">
-        <v>999.5701765833758</v>
+        <v>1074.339722077921</v>
       </c>
       <c r="T22" t="n">
-        <v>774.7499815620233</v>
+        <v>1062.471633480887</v>
       </c>
       <c r="U22" t="n">
-        <v>698.5602392448664</v>
+        <v>773.3297847394131</v>
       </c>
       <c r="V22" t="n">
-        <v>443.8757510389795</v>
+        <v>731.5974029578449</v>
       </c>
       <c r="W22" t="n">
-        <v>154.4585810020189</v>
+        <v>442.1802329208842</v>
       </c>
       <c r="X22" t="n">
-        <v>139.4211365283186</v>
+        <v>427.1427884471856</v>
       </c>
       <c r="Y22" t="n">
-        <v>131.5806638091055</v>
+        <v>206.3502093036554</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1013.321737647626</v>
+        <v>1013.321737647615</v>
       </c>
       <c r="C23" t="n">
-        <v>857.3113271315309</v>
+        <v>857.3113271315223</v>
       </c>
       <c r="D23" t="n">
-        <v>711.9977349490974</v>
+        <v>711.9977349490905</v>
       </c>
       <c r="E23" t="n">
-        <v>539.1615887751702</v>
+        <v>539.161588775165</v>
       </c>
       <c r="F23" t="n">
-        <v>341.1277904098797</v>
+        <v>341.1277904098763</v>
       </c>
       <c r="G23" t="n">
-        <v>137.414217939379</v>
+        <v>137.414217939377</v>
       </c>
       <c r="H23" t="n">
-        <v>36.46607014083541</v>
+        <v>36.46607014083497</v>
       </c>
       <c r="I23" t="n">
-        <v>36.46607014083541</v>
+        <v>36.46607014083497</v>
       </c>
       <c r="J23" t="n">
-        <v>92.81284696934995</v>
+        <v>124.1821409422926</v>
       </c>
       <c r="K23" t="n">
-        <v>228.0005772861986</v>
+        <v>575.4497589351254</v>
       </c>
       <c r="L23" t="n">
-        <v>679.2681952790367</v>
+        <v>780.063854367948</v>
       </c>
       <c r="M23" t="n">
-        <v>1065.393170331233</v>
+        <v>1039.405897896479</v>
       </c>
       <c r="N23" t="n">
-        <v>1333.545447636647</v>
+        <v>1307.558175201894</v>
       </c>
       <c r="O23" t="n">
-        <v>1573.418777945347</v>
+        <v>1547.431505510594</v>
       </c>
       <c r="P23" t="n">
-        <v>1743.644114839233</v>
+        <v>1717.656842404479</v>
       </c>
       <c r="Q23" t="n">
-        <v>1823.30350704177</v>
+        <v>1797.316234607017</v>
       </c>
       <c r="R23" t="n">
-        <v>1823.30350704177</v>
+        <v>1823.303507041749</v>
       </c>
       <c r="S23" t="n">
-        <v>1823.30350704177</v>
+        <v>1823.303507041749</v>
       </c>
       <c r="T23" t="n">
-        <v>1823.30350704177</v>
+        <v>1823.30350704175</v>
       </c>
       <c r="U23" t="n">
-        <v>1782.597678440739</v>
+        <v>1782.59767844072</v>
       </c>
       <c r="V23" t="n">
-        <v>1664.486897521485</v>
+        <v>1664.486897521468</v>
       </c>
       <c r="W23" t="n">
-        <v>1524.670348675688</v>
+        <v>1524.670348675673</v>
       </c>
       <c r="X23" t="n">
-        <v>1364.156696838925</v>
+        <v>1364.156696838912</v>
       </c>
       <c r="Y23" t="n">
-        <v>1186.96947128743</v>
+        <v>1186.969471287419</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>521.9629768225223</v>
+        <v>665.6255220617837</v>
       </c>
       <c r="C24" t="n">
-        <v>347.5099475413953</v>
+        <v>491.1724927806567</v>
       </c>
       <c r="D24" t="n">
-        <v>198.575537880144</v>
+        <v>342.2380831194055</v>
       </c>
       <c r="E24" t="n">
-        <v>39.3380828746885</v>
+        <v>183.00062811395</v>
       </c>
       <c r="F24" t="n">
-        <v>36.46607014083541</v>
+        <v>36.46607014083497</v>
       </c>
       <c r="G24" t="n">
-        <v>36.46607014083541</v>
+        <v>36.46607014083497</v>
       </c>
       <c r="H24" t="n">
-        <v>36.46607014083541</v>
+        <v>36.46607014083497</v>
       </c>
       <c r="I24" t="n">
-        <v>36.46607014083541</v>
+        <v>36.46607014083497</v>
       </c>
       <c r="J24" t="n">
-        <v>51.20797744884054</v>
+        <v>176.0381024358448</v>
       </c>
       <c r="K24" t="n">
-        <v>416.379654462048</v>
+        <v>541.2097794490523</v>
       </c>
       <c r="L24" t="n">
-        <v>601.67049362666</v>
+        <v>726.5006186136643</v>
       </c>
       <c r="M24" t="n">
-        <v>837.2530314997578</v>
+        <v>962.0831564867622</v>
       </c>
       <c r="N24" t="n">
-        <v>1093.479383068384</v>
+        <v>1218.309508055389</v>
       </c>
       <c r="O24" t="n">
-        <v>1413.376947450778</v>
+        <v>1430.486766661032</v>
       </c>
       <c r="P24" t="n">
-        <v>1564.334837116075</v>
+        <v>1772.311351974544</v>
       </c>
       <c r="Q24" t="n">
-        <v>1823.30350704177</v>
+        <v>1823.303507041749</v>
       </c>
       <c r="R24" t="n">
-        <v>1823.30350704177</v>
+        <v>1823.303507041749</v>
       </c>
       <c r="S24" t="n">
-        <v>1823.30350704177</v>
+        <v>1823.303507041749</v>
       </c>
       <c r="T24" t="n">
-        <v>1823.30350704177</v>
+        <v>1823.303507041749</v>
       </c>
       <c r="U24" t="n">
-        <v>1595.179577773021</v>
+        <v>1738.842123012283</v>
       </c>
       <c r="V24" t="n">
-        <v>1360.027469541279</v>
+        <v>1503.69001478054</v>
       </c>
       <c r="W24" t="n">
-        <v>1105.790112813077</v>
+        <v>1249.452658052338</v>
       </c>
       <c r="X24" t="n">
-        <v>897.9386126075442</v>
+        <v>1041.601157846806</v>
       </c>
       <c r="Y24" t="n">
-        <v>690.1783138425903</v>
+        <v>833.8408590818517</v>
       </c>
     </row>
     <row r="25">
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>673.1109904407474</v>
+        <v>40.95426224343289</v>
       </c>
       <c r="C25" t="n">
-        <v>504.1748075128405</v>
+        <v>40.95426224343289</v>
       </c>
       <c r="D25" t="n">
-        <v>504.1748075128405</v>
+        <v>40.95426224343289</v>
       </c>
       <c r="E25" t="n">
-        <v>356.2617139304474</v>
+        <v>40.95426224343289</v>
       </c>
       <c r="F25" t="n">
-        <v>209.371766432537</v>
+        <v>40.95426224343289</v>
       </c>
       <c r="G25" t="n">
-        <v>40.95426224343333</v>
+        <v>40.95426224343289</v>
       </c>
       <c r="H25" t="n">
-        <v>40.95426224343333</v>
+        <v>40.95426224343289</v>
       </c>
       <c r="I25" t="n">
-        <v>40.95426224343333</v>
+        <v>40.95426224343289</v>
       </c>
       <c r="J25" t="n">
-        <v>36.46607014083541</v>
+        <v>36.46607014083497</v>
       </c>
       <c r="K25" t="n">
-        <v>159.0742005307403</v>
+        <v>159.0742005307399</v>
       </c>
       <c r="L25" t="n">
-        <v>371.4968295309251</v>
+        <v>371.4968295309246</v>
       </c>
       <c r="M25" t="n">
-        <v>605.8558310557992</v>
+        <v>605.8558310557987</v>
       </c>
       <c r="N25" t="n">
-        <v>840.0769157643894</v>
+        <v>840.0769157643889</v>
       </c>
       <c r="O25" t="n">
         <v>1040.401701759381</v>
@@ -6169,28 +6169,28 @@
         <v>1207.251003168306</v>
       </c>
       <c r="R25" t="n">
-        <v>1207.251003168306</v>
+        <v>1085.286493465227</v>
       </c>
       <c r="S25" t="n">
-        <v>1207.251003168306</v>
+        <v>908.9437750176983</v>
       </c>
       <c r="T25" t="n">
-        <v>1195.382914571271</v>
+        <v>684.1235799963458</v>
       </c>
       <c r="U25" t="n">
-        <v>906.2410658297968</v>
+        <v>607.9338376791904</v>
       </c>
       <c r="V25" t="n">
-        <v>864.5086840482269</v>
+        <v>353.2493494733036</v>
       </c>
       <c r="W25" t="n">
-        <v>788.0436204355833</v>
+        <v>63.83217943634301</v>
       </c>
       <c r="X25" t="n">
-        <v>773.0061759618829</v>
+        <v>48.79473496264433</v>
       </c>
       <c r="Y25" t="n">
-        <v>765.1657032426699</v>
+        <v>40.95426224343289</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>999.5210798553339</v>
       </c>
       <c r="F26" t="n">
-        <v>668.3091599991681</v>
+        <v>668.3091599991676</v>
       </c>
       <c r="G26" t="n">
-        <v>331.4174660377912</v>
+        <v>331.4174660377909</v>
       </c>
       <c r="H26" t="n">
-        <v>97.29119674837176</v>
+        <v>97.29119674837173</v>
       </c>
       <c r="I26" t="n">
         <v>73.64533192957366</v>
@@ -6227,25 +6227,25 @@
         <v>297.3977577784412</v>
       </c>
       <c r="K26" t="n">
-        <v>581.7396448726531</v>
+        <v>753.489446540743</v>
       </c>
       <c r="L26" t="n">
-        <v>1199.838342710422</v>
+        <v>1371.588144378512</v>
       </c>
       <c r="M26" t="n">
-        <v>1904.198784396857</v>
+        <v>1992.604246040222</v>
       </c>
       <c r="N26" t="n">
-        <v>2605.324516870136</v>
+        <v>2260.756523345636</v>
       </c>
       <c r="O26" t="n">
-        <v>3222.190026628954</v>
+        <v>2877.622033104454</v>
       </c>
       <c r="P26" t="n">
-        <v>3392.415363522839</v>
+        <v>3366.428091088107</v>
       </c>
       <c r="Q26" t="n">
-        <v>3682.266596478682</v>
+        <v>3656.279324043951</v>
       </c>
       <c r="R26" t="n">
         <v>3682.266596478682</v>
@@ -6257,7 +6257,7 @@
         <v>3482.266091539815</v>
       </c>
       <c r="U26" t="n">
-        <v>3308.382141447908</v>
+        <v>3308.382141447907</v>
       </c>
       <c r="V26" t="n">
         <v>3057.093239037778</v>
@@ -6303,25 +6303,25 @@
         <v>73.64533192957366</v>
       </c>
       <c r="J27" t="n">
-        <v>97.93272781668026</v>
+        <v>213.2173642245835</v>
       </c>
       <c r="K27" t="n">
-        <v>463.1044048298877</v>
+        <v>578.3890412377909</v>
       </c>
       <c r="L27" t="n">
-        <v>1015.527185844924</v>
+        <v>763.6798804024029</v>
       </c>
       <c r="M27" t="n">
-        <v>1251.109723718022</v>
+        <v>999.2624182755007</v>
       </c>
       <c r="N27" t="n">
-        <v>1507.336075286649</v>
+        <v>1689.28325651212</v>
       </c>
       <c r="O27" t="n">
-        <v>2109.437029976254</v>
+        <v>1901.460515117763</v>
       </c>
       <c r="P27" t="n">
-        <v>2575.673060595089</v>
+        <v>2367.696545736598</v>
       </c>
       <c r="Q27" t="n">
         <v>2626.665215662294</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>568.8897160466017</v>
+        <v>568.8897160466015</v>
       </c>
       <c r="C28" t="n">
-        <v>479.7275180521362</v>
+        <v>479.7275180521361</v>
       </c>
       <c r="D28" t="n">
-        <v>409.3848635732419</v>
+        <v>409.3848635732418</v>
       </c>
       <c r="E28" t="n">
-        <v>341.2457549242902</v>
+        <v>341.2457549242901</v>
       </c>
       <c r="F28" t="n">
         <v>274.1297923598212</v>
@@ -6391,28 +6391,28 @@
         <v>638.8366621397049</v>
       </c>
       <c r="M28" t="n">
-        <v>951.382146297845</v>
+        <v>951.3821462978443</v>
       </c>
       <c r="N28" t="n">
-        <v>1263.789713639701</v>
+        <v>1263.7897136397</v>
       </c>
       <c r="O28" t="n">
-        <v>1542.300982267959</v>
+        <v>1542.300982267958</v>
       </c>
       <c r="P28" t="n">
-        <v>1768.379244267235</v>
+        <v>1768.379244267234</v>
       </c>
       <c r="Q28" t="n">
-        <v>1865.523248943416</v>
+        <v>1865.523248943415</v>
       </c>
       <c r="R28" t="n">
-        <v>1823.332724173778</v>
+        <v>1823.332724173777</v>
       </c>
       <c r="S28" t="n">
         <v>1698.966118389973</v>
       </c>
       <c r="T28" t="n">
-        <v>1553.919908302062</v>
+        <v>1553.919908302061</v>
       </c>
       <c r="U28" t="n">
         <v>1344.552044494029</v>
@@ -6421,13 +6421,13 @@
         <v>1169.641541221584</v>
       </c>
       <c r="W28" t="n">
-        <v>959.9983561180645</v>
+        <v>959.9983561180643</v>
       </c>
       <c r="X28" t="n">
-        <v>811.7827901534886</v>
+        <v>811.7827901534883</v>
       </c>
       <c r="Y28" t="n">
-        <v>670.7641959434</v>
+        <v>670.7641959433997</v>
       </c>
     </row>
     <row r="29">
@@ -6440,13 +6440,13 @@
         <v>1873.215593200416</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.027061193445</v>
+        <v>1584.027061193446</v>
       </c>
       <c r="D29" t="n">
-        <v>1305.535347520136</v>
+        <v>1305.535347520137</v>
       </c>
       <c r="E29" t="n">
-        <v>999.5210798553336</v>
+        <v>999.5210798553344</v>
       </c>
       <c r="F29" t="n">
         <v>668.3091599991681</v>
@@ -6455,19 +6455,19 @@
         <v>331.4174660377912</v>
       </c>
       <c r="H29" t="n">
-        <v>97.29119674837176</v>
+        <v>97.29119674837173</v>
       </c>
       <c r="I29" t="n">
         <v>73.64533192957366</v>
       </c>
       <c r="J29" t="n">
-        <v>129.9921087580882</v>
+        <v>252.0856331784875</v>
       </c>
       <c r="K29" t="n">
-        <v>265.1798390749368</v>
+        <v>708.1773219407892</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2576216206538</v>
+        <v>1326.276019778558</v>
       </c>
       <c r="M29" t="n">
         <v>1585.618063307089</v>
@@ -6494,7 +6494,7 @@
         <v>3482.266091539815</v>
       </c>
       <c r="U29" t="n">
-        <v>3308.382141447907</v>
+        <v>3308.382141447908</v>
       </c>
       <c r="V29" t="n">
         <v>3057.093239037778</v>
@@ -6540,19 +6540,19 @@
         <v>73.64533192957366</v>
       </c>
       <c r="J30" t="n">
-        <v>88.3872392375788</v>
+        <v>106.5664315504778</v>
       </c>
       <c r="K30" t="n">
-        <v>191.7383316083334</v>
+        <v>209.9175239212324</v>
       </c>
       <c r="L30" t="n">
-        <v>744.1611126233701</v>
+        <v>395.2083630858444</v>
       </c>
       <c r="M30" t="n">
-        <v>1440.791663608968</v>
+        <v>1091.838914071442</v>
       </c>
       <c r="N30" t="n">
-        <v>2171.566965777712</v>
+        <v>1822.614216240187</v>
       </c>
       <c r="O30" t="n">
         <v>2424.715170929792</v>
@@ -6598,22 +6598,22 @@
         <v>568.8897160466015</v>
       </c>
       <c r="C31" t="n">
-        <v>479.727518052136</v>
+        <v>479.7275180521361</v>
       </c>
       <c r="D31" t="n">
-        <v>409.3848635732417</v>
+        <v>409.3848635732418</v>
       </c>
       <c r="E31" t="n">
-        <v>341.24575492429</v>
+        <v>341.2457549242901</v>
       </c>
       <c r="F31" t="n">
-        <v>274.1297923598211</v>
+        <v>274.1297923598212</v>
       </c>
       <c r="G31" t="n">
-        <v>185.4862731041588</v>
+        <v>185.486273104159</v>
       </c>
       <c r="H31" t="n">
-        <v>112.6890269152894</v>
+        <v>112.6890269152896</v>
       </c>
       <c r="I31" t="n">
         <v>73.64533192957366</v>
@@ -6622,13 +6622,13 @@
         <v>147.4329374830834</v>
       </c>
       <c r="K31" t="n">
-        <v>348.2275505062542</v>
+        <v>348.2275505062543</v>
       </c>
       <c r="L31" t="n">
         <v>638.8366621397049</v>
       </c>
       <c r="M31" t="n">
-        <v>951.3821462978447</v>
+        <v>951.382146297845</v>
       </c>
       <c r="N31" t="n">
         <v>1263.789713639701</v>
@@ -6637,13 +6637,13 @@
         <v>1542.300982267958</v>
       </c>
       <c r="P31" t="n">
-        <v>1768.379244267235</v>
+        <v>1768.379244267234</v>
       </c>
       <c r="Q31" t="n">
         <v>1865.523248943415</v>
       </c>
       <c r="R31" t="n">
-        <v>1823.332724173778</v>
+        <v>1823.332724173777</v>
       </c>
       <c r="S31" t="n">
         <v>1698.966118389973</v>
@@ -6655,13 +6655,13 @@
         <v>1344.552044494029</v>
       </c>
       <c r="V31" t="n">
-        <v>1169.641541221583</v>
+        <v>1169.641541221584</v>
       </c>
       <c r="W31" t="n">
-        <v>959.9983561180641</v>
+        <v>959.9983561180643</v>
       </c>
       <c r="X31" t="n">
-        <v>811.7827901534881</v>
+        <v>811.7827901534883</v>
       </c>
       <c r="Y31" t="n">
         <v>670.7641959433997</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1873.215593200415</v>
+        <v>1873.215593200416</v>
       </c>
       <c r="C32" t="n">
-        <v>1584.027061193444</v>
+        <v>1584.027061193446</v>
       </c>
       <c r="D32" t="n">
-        <v>1305.535347520135</v>
+        <v>1305.535347520137</v>
       </c>
       <c r="E32" t="n">
-        <v>999.521079855333</v>
+        <v>999.5210798553341</v>
       </c>
       <c r="F32" t="n">
-        <v>668.3091599991672</v>
+        <v>668.3091599991683</v>
       </c>
       <c r="G32" t="n">
-        <v>331.4174660377903</v>
+        <v>331.4174660377914</v>
       </c>
       <c r="H32" t="n">
         <v>97.29119674837176</v>
@@ -6698,25 +6698,25 @@
         <v>73.64533192957366</v>
       </c>
       <c r="J32" t="n">
-        <v>129.9921087580882</v>
+        <v>297.3977577784412</v>
       </c>
       <c r="K32" t="n">
-        <v>586.0837975203899</v>
+        <v>708.1773219407892</v>
       </c>
       <c r="L32" t="n">
-        <v>1204.182495358159</v>
+        <v>1326.276019778558</v>
       </c>
       <c r="M32" t="n">
-        <v>1908.542937044594</v>
+        <v>1585.618063307089</v>
       </c>
       <c r="N32" t="n">
-        <v>2609.668669517873</v>
+        <v>2286.743795780368</v>
       </c>
       <c r="O32" t="n">
-        <v>3226.534179276691</v>
+        <v>2903.609305539186</v>
       </c>
       <c r="P32" t="n">
-        <v>3396.759516170576</v>
+        <v>3392.415363522839</v>
       </c>
       <c r="Q32" t="n">
         <v>3682.266596478682</v>
@@ -6737,13 +6737,13 @@
         <v>3057.093239037777</v>
       </c>
       <c r="W32" t="n">
-        <v>2784.098568701104</v>
+        <v>2784.098568701105</v>
       </c>
       <c r="X32" t="n">
-        <v>2490.406795373466</v>
+        <v>2490.406795373467</v>
       </c>
       <c r="Y32" t="n">
-        <v>2180.041448331095</v>
+        <v>2180.041448331096</v>
       </c>
     </row>
     <row r="33">
@@ -6789,13 +6789,13 @@
         <v>1073.659721758543</v>
       </c>
       <c r="N33" t="n">
-        <v>1329.88607332717</v>
+        <v>1804.435023927288</v>
       </c>
       <c r="O33" t="n">
-        <v>1901.460515117763</v>
+        <v>2406.535978616893</v>
       </c>
       <c r="P33" t="n">
-        <v>2367.696545736598</v>
+        <v>2575.673060595089</v>
       </c>
       <c r="Q33" t="n">
         <v>2626.665215662294</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>568.8897160466017</v>
+        <v>568.8897160466015</v>
       </c>
       <c r="C34" t="n">
-        <v>479.7275180521362</v>
+        <v>479.727518052136</v>
       </c>
       <c r="D34" t="n">
-        <v>409.3848635732419</v>
+        <v>409.3848635732417</v>
       </c>
       <c r="E34" t="n">
-        <v>341.2457549242902</v>
+        <v>341.24575492429</v>
       </c>
       <c r="F34" t="n">
-        <v>274.1297923598213</v>
+        <v>274.1297923598211</v>
       </c>
       <c r="G34" t="n">
-        <v>185.486273104159</v>
+        <v>185.4862731041588</v>
       </c>
       <c r="H34" t="n">
         <v>112.6890269152896</v>
@@ -6859,16 +6859,16 @@
         <v>147.4329374830834</v>
       </c>
       <c r="K34" t="n">
-        <v>348.2275505062541</v>
+        <v>348.2275505062537</v>
       </c>
       <c r="L34" t="n">
-        <v>638.8366621397048</v>
+        <v>638.8366621397043</v>
       </c>
       <c r="M34" t="n">
-        <v>951.3821462978449</v>
+        <v>951.3821462978444</v>
       </c>
       <c r="N34" t="n">
-        <v>1263.789713639701</v>
+        <v>1263.7897136397</v>
       </c>
       <c r="O34" t="n">
         <v>1542.300982267958</v>
@@ -6877,31 +6877,31 @@
         <v>1768.379244267235</v>
       </c>
       <c r="Q34" t="n">
-        <v>1865.523248943416</v>
+        <v>1865.523248943415</v>
       </c>
       <c r="R34" t="n">
-        <v>1823.332724173778</v>
+        <v>1823.332724173777</v>
       </c>
       <c r="S34" t="n">
         <v>1698.966118389973</v>
       </c>
       <c r="T34" t="n">
-        <v>1553.919908302062</v>
+        <v>1553.919908302061</v>
       </c>
       <c r="U34" t="n">
         <v>1344.552044494029</v>
       </c>
       <c r="V34" t="n">
-        <v>1169.641541221584</v>
+        <v>1169.641541221583</v>
       </c>
       <c r="W34" t="n">
-        <v>959.9983561180647</v>
+        <v>959.9983561180642</v>
       </c>
       <c r="X34" t="n">
-        <v>811.7827901534888</v>
+        <v>811.7827901534883</v>
       </c>
       <c r="Y34" t="n">
-        <v>670.7641959434001</v>
+        <v>670.7641959433997</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1382.580781882098</v>
+        <v>1382.580781882096</v>
       </c>
       <c r="C35" t="n">
-        <v>1167.633260071251</v>
+        <v>1167.633260071249</v>
       </c>
       <c r="D35" t="n">
-        <v>963.3825565940643</v>
+        <v>963.3825565940626</v>
       </c>
       <c r="E35" t="n">
-        <v>731.6092991253845</v>
+        <v>731.6092991253831</v>
       </c>
       <c r="F35" t="n">
-        <v>474.6383894653413</v>
+        <v>474.6383894653402</v>
       </c>
       <c r="G35" t="n">
         <v>211.9877057000865</v>
       </c>
       <c r="H35" t="n">
-        <v>52.10244660679022</v>
+        <v>52.1024466067902</v>
       </c>
       <c r="I35" t="n">
-        <v>52.10244660679022</v>
+        <v>52.1024466067902</v>
       </c>
       <c r="J35" t="n">
-        <v>108.4492234353048</v>
+        <v>275.8548724556578</v>
       </c>
       <c r="K35" t="n">
-        <v>243.6369537521534</v>
+        <v>411.0426027725064</v>
       </c>
       <c r="L35" t="n">
-        <v>861.7356515899221</v>
+        <v>615.6566982053291</v>
       </c>
       <c r="M35" t="n">
-        <v>1470.596494175359</v>
+        <v>874.9987417338604</v>
       </c>
       <c r="N35" t="n">
-        <v>2115.364270934388</v>
+        <v>1209.599529641196</v>
       </c>
       <c r="O35" t="n">
-        <v>2355.237601243088</v>
+        <v>1826.465039400013</v>
       </c>
       <c r="P35" t="n">
-        <v>2525.462938136973</v>
+        <v>2315.271097383667</v>
       </c>
       <c r="Q35" t="n">
-        <v>2605.122330339511</v>
+        <v>2605.12233033951</v>
       </c>
       <c r="R35" t="n">
-        <v>2605.122330339511</v>
+        <v>2605.12233033951</v>
       </c>
       <c r="S35" t="n">
-        <v>2605.122330339511</v>
+        <v>2605.12233033951</v>
       </c>
       <c r="T35" t="n">
-        <v>2546.185219044759</v>
+        <v>2546.185219044757</v>
       </c>
       <c r="U35" t="n">
-        <v>2446.542279148975</v>
+        <v>2446.542279148973</v>
       </c>
       <c r="V35" t="n">
-        <v>2269.494386934968</v>
+        <v>2269.494386934966</v>
       </c>
       <c r="W35" t="n">
-        <v>2070.740726794418</v>
+        <v>2070.740726794416</v>
       </c>
       <c r="X35" t="n">
-        <v>1851.289963662903</v>
+        <v>1851.289963662901</v>
       </c>
       <c r="Y35" t="n">
-        <v>1615.165626816655</v>
+        <v>1615.165626816653</v>
       </c>
     </row>
     <row r="36">
@@ -6990,55 +6990,55 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>955.3412975349523</v>
+        <v>955.3412975349515</v>
       </c>
       <c r="C36" t="n">
-        <v>780.8882682538253</v>
+        <v>780.8882682538245</v>
       </c>
       <c r="D36" t="n">
-        <v>631.9538585925741</v>
+        <v>631.9538585925734</v>
       </c>
       <c r="E36" t="n">
-        <v>472.7164035871186</v>
+        <v>472.7164035871178</v>
       </c>
       <c r="F36" t="n">
-        <v>326.1818456140036</v>
+        <v>326.1818456140029</v>
       </c>
       <c r="G36" t="n">
-        <v>188.9662929185217</v>
+        <v>188.9662929185215</v>
       </c>
       <c r="H36" t="n">
-        <v>90.23150177184506</v>
+        <v>90.23150177184505</v>
       </c>
       <c r="I36" t="n">
-        <v>52.10244660679022</v>
+        <v>52.1024466067902</v>
       </c>
       <c r="J36" t="n">
         <v>191.6744789018001</v>
       </c>
       <c r="K36" t="n">
-        <v>295.0255712725547</v>
+        <v>556.8461559150076</v>
       </c>
       <c r="L36" t="n">
-        <v>847.4483522875913</v>
+        <v>786.0077856636501</v>
       </c>
       <c r="M36" t="n">
-        <v>1083.030890160689</v>
+        <v>1021.590323536748</v>
       </c>
       <c r="N36" t="n">
-        <v>1339.257241729316</v>
+        <v>1277.816675105375</v>
       </c>
       <c r="O36" t="n">
-        <v>1941.358196418921</v>
+        <v>1879.91762979498</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.594227037755</v>
+        <v>2346.153660413815</v>
       </c>
       <c r="Q36" t="n">
         <v>2605.12233033951</v>
       </c>
       <c r="R36" t="n">
-        <v>2598.032628310177</v>
+        <v>2598.032628310176</v>
       </c>
       <c r="S36" t="n">
         <v>2452.760809976888</v>
@@ -7050,13 +7050,13 @@
         <v>2028.557898485451</v>
       </c>
       <c r="V36" t="n">
-        <v>1793.405790253709</v>
+        <v>1793.405790253708</v>
       </c>
       <c r="W36" t="n">
-        <v>1539.168433525507</v>
+        <v>1539.168433525506</v>
       </c>
       <c r="X36" t="n">
-        <v>1331.316933319974</v>
+        <v>1331.316933319973</v>
       </c>
       <c r="Y36" t="n">
         <v>1123.55663455502</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>100.3274676873751</v>
+        <v>376.2291845449755</v>
       </c>
       <c r="C37" t="n">
-        <v>85.40627988903252</v>
+        <v>361.307996746633</v>
       </c>
       <c r="D37" t="n">
-        <v>85.40627988903252</v>
+        <v>361.307996746633</v>
       </c>
       <c r="E37" t="n">
-        <v>85.40627988903252</v>
+        <v>213.3949031642398</v>
       </c>
       <c r="F37" t="n">
-        <v>85.40627988903252</v>
+        <v>66.50495566632949</v>
       </c>
       <c r="G37" t="n">
-        <v>56.59063870938814</v>
+        <v>52.1024466067902</v>
       </c>
       <c r="H37" t="n">
-        <v>56.59063870938814</v>
+        <v>52.1024466067902</v>
       </c>
       <c r="I37" t="n">
-        <v>56.59063870938814</v>
+        <v>52.1024466067902</v>
       </c>
       <c r="J37" t="n">
-        <v>52.10244660679022</v>
+        <v>52.1024466067902</v>
       </c>
       <c r="K37" t="n">
         <v>174.7105769966951</v>
@@ -7120,25 +7120,25 @@
         <v>1222.887379634261</v>
       </c>
       <c r="S37" t="n">
-        <v>1172.761784046579</v>
+        <v>1140.63351064505</v>
       </c>
       <c r="T37" t="n">
-        <v>1101.956584154791</v>
+        <v>1069.828310753262</v>
       </c>
       <c r="U37" t="n">
-        <v>966.8297305428811</v>
+        <v>934.7014571413526</v>
       </c>
       <c r="V37" t="n">
-        <v>712.1452423369942</v>
+        <v>834.0319640650301</v>
       </c>
       <c r="W37" t="n">
-        <v>422.7280723000336</v>
+        <v>698.6297891576339</v>
       </c>
       <c r="X37" t="n">
-        <v>194.7385214020163</v>
+        <v>470.6402382596166</v>
       </c>
       <c r="Y37" t="n">
-        <v>127.9609373880505</v>
+        <v>403.8626542456508</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1167.63326007125</v>
       </c>
       <c r="D38" t="n">
-        <v>963.3825565940635</v>
+        <v>963.3825565940638</v>
       </c>
       <c r="E38" t="n">
-        <v>731.6092991253836</v>
+        <v>731.609299125384</v>
       </c>
       <c r="F38" t="n">
-        <v>474.6383894653403</v>
+        <v>474.6383894653408</v>
       </c>
       <c r="G38" t="n">
         <v>211.9877057000865</v>
@@ -7202,10 +7202,10 @@
         <v>2605.12233033951</v>
       </c>
       <c r="T38" t="n">
-        <v>2546.185219044757</v>
+        <v>2546.185219044758</v>
       </c>
       <c r="U38" t="n">
-        <v>2446.542279148974</v>
+        <v>2446.542279148973</v>
       </c>
       <c r="V38" t="n">
         <v>2269.494386934967</v>
@@ -7217,7 +7217,7 @@
         <v>1851.289963662902</v>
       </c>
       <c r="Y38" t="n">
-        <v>1615.165626816654</v>
+        <v>1615.165626816655</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>955.3412975349515</v>
+        <v>955.3412975349523</v>
       </c>
       <c r="C39" t="n">
-        <v>780.8882682538245</v>
+        <v>780.8882682538253</v>
       </c>
       <c r="D39" t="n">
-        <v>631.9538585925734</v>
+        <v>631.9538585925741</v>
       </c>
       <c r="E39" t="n">
-        <v>472.7164035871178</v>
+        <v>472.7164035871185</v>
       </c>
       <c r="F39" t="n">
-        <v>326.1818456140029</v>
+        <v>326.1818456140035</v>
       </c>
       <c r="G39" t="n">
-        <v>188.9662929185215</v>
+        <v>188.9662929185217</v>
       </c>
       <c r="H39" t="n">
         <v>90.23150177184505</v>
@@ -7257,13 +7257,13 @@
         <v>556.8461559150076</v>
       </c>
       <c r="L39" t="n">
-        <v>742.1369950796195</v>
+        <v>786.0077856636501</v>
       </c>
       <c r="M39" t="n">
-        <v>1386.904771838648</v>
+        <v>1021.590323536748</v>
       </c>
       <c r="N39" t="n">
-        <v>1643.131123407275</v>
+        <v>1277.816675105375</v>
       </c>
       <c r="O39" t="n">
         <v>1879.91762979498</v>
@@ -7275,7 +7275,7 @@
         <v>2605.12233033951</v>
       </c>
       <c r="R39" t="n">
-        <v>2598.032628310176</v>
+        <v>2598.032628310177</v>
       </c>
       <c r="S39" t="n">
         <v>2452.760809976888</v>
@@ -7287,13 +7287,13 @@
         <v>2028.557898485451</v>
       </c>
       <c r="V39" t="n">
-        <v>1793.405790253708</v>
+        <v>1793.405790253709</v>
       </c>
       <c r="W39" t="n">
-        <v>1539.168433525506</v>
+        <v>1539.168433525507</v>
       </c>
       <c r="X39" t="n">
-        <v>1331.316933319973</v>
+        <v>1331.316933319974</v>
       </c>
       <c r="Y39" t="n">
         <v>1123.55663455502</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>286.3929482434243</v>
+        <v>132.3779531138606</v>
       </c>
       <c r="C40" t="n">
-        <v>271.4717604450817</v>
+        <v>117.4567653155181</v>
       </c>
       <c r="D40" t="n">
-        <v>271.4717604450817</v>
+        <v>117.4567653155181</v>
       </c>
       <c r="E40" t="n">
-        <v>271.4717604450817</v>
+        <v>117.4567653155181</v>
       </c>
       <c r="F40" t="n">
-        <v>271.4717604450817</v>
+        <v>117.4567653155181</v>
       </c>
       <c r="G40" t="n">
-        <v>209.1618698316989</v>
+        <v>103.0542562559788</v>
       </c>
       <c r="H40" t="n">
         <v>56.59063870938813</v>
@@ -7357,25 +7357,25 @@
         <v>1100.922869931182</v>
       </c>
       <c r="S40" t="n">
-        <v>896.7822792139352</v>
+        <v>1050.7972743435</v>
       </c>
       <c r="T40" t="n">
-        <v>825.977079322147</v>
+        <v>825.9770793221471</v>
       </c>
       <c r="U40" t="n">
-        <v>690.8502257102373</v>
+        <v>690.8502257102375</v>
       </c>
       <c r="V40" t="n">
-        <v>590.1807326339148</v>
+        <v>436.1657375043507</v>
       </c>
       <c r="W40" t="n">
-        <v>454.7785577265184</v>
+        <v>300.7635625969544</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8040019580654</v>
+        <v>226.7890068285015</v>
       </c>
       <c r="Y40" t="n">
-        <v>314.0264179440996</v>
+        <v>160.0114228145358</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1382.580781882097</v>
+        <v>1382.580781882096</v>
       </c>
       <c r="C41" t="n">
         <v>1167.633260071249</v>
       </c>
       <c r="D41" t="n">
-        <v>963.3825565940633</v>
+        <v>963.3825565940627</v>
       </c>
       <c r="E41" t="n">
-        <v>731.6092991253836</v>
+        <v>731.6092991253829</v>
       </c>
       <c r="F41" t="n">
-        <v>474.6383894653404</v>
+        <v>474.6383894653397</v>
       </c>
       <c r="G41" t="n">
-        <v>211.9877057000865</v>
+        <v>211.9877057000864</v>
       </c>
       <c r="H41" t="n">
-        <v>52.1024466067902</v>
+        <v>52.10244660679018</v>
       </c>
       <c r="I41" t="n">
-        <v>52.1024466067902</v>
+        <v>52.10244660679018</v>
       </c>
       <c r="J41" t="n">
-        <v>275.8548724556578</v>
+        <v>108.4492234353047</v>
       </c>
       <c r="K41" t="n">
-        <v>731.9465612179595</v>
+        <v>564.5409121976064</v>
       </c>
       <c r="L41" t="n">
-        <v>936.5606566507822</v>
+        <v>1182.639610035375</v>
       </c>
       <c r="M41" t="n">
-        <v>1195.902700179313</v>
+        <v>1470.219814178854</v>
       </c>
       <c r="N41" t="n">
-        <v>1464.054977484728</v>
+        <v>1738.372091484268</v>
       </c>
       <c r="O41" t="n">
-        <v>1826.465039400013</v>
+        <v>2355.237601243086</v>
       </c>
       <c r="P41" t="n">
-        <v>2315.271097383667</v>
+        <v>2525.462938136971</v>
       </c>
       <c r="Q41" t="n">
-        <v>2605.12233033951</v>
+        <v>2605.122330339509</v>
       </c>
       <c r="R41" t="n">
-        <v>2605.12233033951</v>
+        <v>2605.122330339509</v>
       </c>
       <c r="S41" t="n">
-        <v>2605.12233033951</v>
+        <v>2605.122330339509</v>
       </c>
       <c r="T41" t="n">
-        <v>2546.185219044758</v>
+        <v>2546.185219044757</v>
       </c>
       <c r="U41" t="n">
-        <v>2446.542279148973</v>
+        <v>2446.542279148972</v>
       </c>
       <c r="V41" t="n">
-        <v>2269.494386934967</v>
+        <v>2269.494386934965</v>
       </c>
       <c r="W41" t="n">
-        <v>2070.740726794417</v>
+        <v>2070.740726794416</v>
       </c>
       <c r="X41" t="n">
-        <v>1851.289963662902</v>
+        <v>1851.2899636629</v>
       </c>
       <c r="Y41" t="n">
-        <v>1615.165626816654</v>
+        <v>1615.165626816653</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>188.9662929185217</v>
       </c>
       <c r="H42" t="n">
-        <v>90.23150177184505</v>
+        <v>90.23150177184502</v>
       </c>
       <c r="I42" t="n">
-        <v>52.1024466067902</v>
+        <v>52.10244660679018</v>
       </c>
       <c r="J42" t="n">
         <v>191.6744789018001</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>254.3424628169393</v>
+        <v>254.3424628169398</v>
       </c>
       <c r="C43" t="n">
-        <v>85.40627988903236</v>
+        <v>239.4212750185973</v>
       </c>
       <c r="D43" t="n">
-        <v>85.40627988903236</v>
+        <v>239.4212750185973</v>
       </c>
       <c r="E43" t="n">
-        <v>85.40627988903236</v>
+        <v>91.50818143620421</v>
       </c>
       <c r="F43" t="n">
-        <v>85.40627988903236</v>
+        <v>91.50818143620421</v>
       </c>
       <c r="G43" t="n">
-        <v>52.1024466067902</v>
+        <v>77.10567237666494</v>
       </c>
       <c r="H43" t="n">
-        <v>52.1024466067902</v>
+        <v>52.10244660679018</v>
       </c>
       <c r="I43" t="n">
-        <v>52.1024466067902</v>
+        <v>52.10244660679018</v>
       </c>
       <c r="J43" t="n">
-        <v>52.1024466067902</v>
+        <v>52.10244660679018</v>
       </c>
       <c r="K43" t="n">
         <v>174.7105769966951</v>
@@ -7594,25 +7594,25 @@
         <v>1222.887379634261</v>
       </c>
       <c r="S43" t="n">
-        <v>1018.746788917015</v>
+        <v>1172.761784046579</v>
       </c>
       <c r="T43" t="n">
-        <v>947.9415890252263</v>
+        <v>1101.956584154791</v>
       </c>
       <c r="U43" t="n">
-        <v>812.8147354133166</v>
+        <v>966.8297305428812</v>
       </c>
       <c r="V43" t="n">
-        <v>712.1452423369941</v>
+        <v>712.1452423369943</v>
       </c>
       <c r="W43" t="n">
-        <v>576.7430674295978</v>
+        <v>422.7280723000337</v>
       </c>
       <c r="X43" t="n">
-        <v>502.7685116611448</v>
+        <v>348.7535165315808</v>
       </c>
       <c r="Y43" t="n">
-        <v>435.990927647179</v>
+        <v>281.9759325176151</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1382.580781882094</v>
+        <v>1382.580781882096</v>
       </c>
       <c r="C44" t="n">
-        <v>1167.633260071247</v>
+        <v>1167.633260071249</v>
       </c>
       <c r="D44" t="n">
-        <v>963.382556594061</v>
+        <v>963.3825565940629</v>
       </c>
       <c r="E44" t="n">
-        <v>731.6092991253811</v>
+        <v>731.6092991253832</v>
       </c>
       <c r="F44" t="n">
-        <v>474.6383894653403</v>
+        <v>474.6383894653402</v>
       </c>
       <c r="G44" t="n">
         <v>211.9877057000865</v>
@@ -7658,16 +7658,16 @@
         <v>1260.424474964358</v>
       </c>
       <c r="N44" t="n">
-        <v>1528.576752269772</v>
+        <v>1905.192251723387</v>
       </c>
       <c r="O44" t="n">
-        <v>1800.477766965282</v>
+        <v>2355.237601243087</v>
       </c>
       <c r="P44" t="n">
-        <v>2289.283824948935</v>
+        <v>2525.462938136972</v>
       </c>
       <c r="Q44" t="n">
-        <v>2579.135057904778</v>
+        <v>2605.12233033951</v>
       </c>
       <c r="R44" t="n">
         <v>2605.12233033951</v>
@@ -7679,19 +7679,19 @@
         <v>2546.185219044757</v>
       </c>
       <c r="U44" t="n">
-        <v>2446.542279148971</v>
+        <v>2446.542279148973</v>
       </c>
       <c r="V44" t="n">
-        <v>2269.494386934964</v>
+        <v>2269.494386934966</v>
       </c>
       <c r="W44" t="n">
-        <v>2070.740726794415</v>
+        <v>2070.740726794416</v>
       </c>
       <c r="X44" t="n">
-        <v>1851.289963662899</v>
+        <v>1851.289963662901</v>
       </c>
       <c r="Y44" t="n">
-        <v>1615.165626816652</v>
+        <v>1615.165626816654</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>955.3412975349523</v>
+        <v>955.341297534952</v>
       </c>
       <c r="C45" t="n">
-        <v>780.8882682538253</v>
+        <v>780.888268253825</v>
       </c>
       <c r="D45" t="n">
-        <v>631.9538585925741</v>
+        <v>631.9538585925739</v>
       </c>
       <c r="E45" t="n">
-        <v>472.7164035871185</v>
+        <v>472.7164035871183</v>
       </c>
       <c r="F45" t="n">
-        <v>326.1818456140035</v>
+        <v>326.1818456140034</v>
       </c>
       <c r="G45" t="n">
-        <v>188.9662929185217</v>
+        <v>188.9662929185215</v>
       </c>
       <c r="H45" t="n">
         <v>90.23150177184505</v>
@@ -7728,16 +7728,16 @@
         <v>191.6744789018001</v>
       </c>
       <c r="K45" t="n">
-        <v>556.8461559150076</v>
+        <v>295.0255712725547</v>
       </c>
       <c r="L45" t="n">
-        <v>742.1369950796195</v>
+        <v>712.7445014267857</v>
       </c>
       <c r="M45" t="n">
-        <v>977.7195329527174</v>
+        <v>948.3270392998836</v>
       </c>
       <c r="N45" t="n">
-        <v>1622.487309711746</v>
+        <v>1593.094816058912</v>
       </c>
       <c r="O45" t="n">
         <v>2195.195770748518</v>
@@ -7749,7 +7749,7 @@
         <v>2605.12233033951</v>
       </c>
       <c r="R45" t="n">
-        <v>2598.032628310177</v>
+        <v>2598.032628310176</v>
       </c>
       <c r="S45" t="n">
         <v>2452.760809976888</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>376.2291845449756</v>
+        <v>254.3424628169397</v>
       </c>
       <c r="C46" t="n">
-        <v>361.307996746633</v>
+        <v>85.40627988903279</v>
       </c>
       <c r="D46" t="n">
-        <v>361.307996746633</v>
+        <v>85.40627988903279</v>
       </c>
       <c r="E46" t="n">
-        <v>213.3949031642399</v>
+        <v>85.40627988903279</v>
       </c>
       <c r="F46" t="n">
-        <v>66.50495566632955</v>
+        <v>66.50495566632947</v>
       </c>
       <c r="G46" t="n">
         <v>52.1024466067902</v>
@@ -7831,25 +7831,25 @@
         <v>1222.887379634261</v>
       </c>
       <c r="S46" t="n">
-        <v>1018.746788917015</v>
+        <v>1172.761784046579</v>
       </c>
       <c r="T46" t="n">
-        <v>947.9415890252263</v>
+        <v>1101.956584154791</v>
       </c>
       <c r="U46" t="n">
-        <v>812.8147354133166</v>
+        <v>966.8297305428812</v>
       </c>
       <c r="V46" t="n">
-        <v>680.0169689354661</v>
+        <v>866.1602374665587</v>
       </c>
       <c r="W46" t="n">
-        <v>544.6147940280698</v>
+        <v>730.7580625591625</v>
       </c>
       <c r="X46" t="n">
-        <v>470.6402382596168</v>
+        <v>502.7685116611451</v>
       </c>
       <c r="Y46" t="n">
-        <v>403.862654245651</v>
+        <v>281.975932517615</v>
       </c>
     </row>
   </sheetData>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>206.1423749434488</v>
+        <v>80.05133960303959</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>201.9847440071979</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>32.88812883515395</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>39.46664973688979</v>
@@ -9015,16 +9015,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>152.7584318804242</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>129.2776517298431</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>71.95879587438827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>32.88812883512418</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>32.88812883515395</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>39.46664973688979</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>71.95879587441812</v>
+        <v>71.95879587438827</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9416,10 +9416,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>201.9847440071978</v>
       </c>
       <c r="Q20" t="n">
-        <v>32.88812883515395</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>39.46664973688979</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>17.5708465976586</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>71.95879587441812</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>31.68615552822536</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>319.2726138141254</v>
       </c>
       <c r="L23" t="n">
-        <v>249.1449722828439</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>128.0635671956209</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>39.46664973688979</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9729,13 +9729,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>108.8083896734852</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>192.7946420689041</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9875,28 +9875,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>150.660764421579</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>365.3273314476554</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>39.46664973688979</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>9.641907655658041</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>438.1762491595886</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>123.3267923438376</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>415.6198859726205</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>18.36282051807984</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10203,7 +10203,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>41.38479449135036</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10346,16 +10346,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>278.3755897429286</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10364,10 +10364,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>207.9269576823924</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>39.46664973688979</v>
@@ -10437,16 +10437,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>363.0274577625761</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>18.36282051807981</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>353.0492919766725</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>380.4196964177922</v>
+        <v>67.1197076787077</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>39.46664973688979</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>44.31392988285913</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>148.0161093278283</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,16 +10905,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>44.31392988285913</v>
       </c>
       <c r="M39" t="n">
-        <v>413.3184231171019</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>24.85782604248698</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>28.52339456055313</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>123.7744763702883</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>39.46664973688979</v>
@@ -11306,19 +11306,19 @@
         <v>389.318922455048</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>380.419696417792</v>
       </c>
       <c r="O44" t="n">
-        <v>32.35119635031256</v>
+        <v>212.2949689000004</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>39.46664973688979</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>234.7758494844637</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,7 +11388,7 @@
         <v>392.4660860509113</v>
       </c>
       <c r="O45" t="n">
-        <v>364.1729317486148</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>250.8875013875137</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>233.4265514950407</v>
+        <v>233.4265514950391</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.784804652097705</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>275.0297054657446</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>280.6526818299016</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>178.9149114046636</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>78.97624508410701</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>119.2750153991285</v>
+        <v>65.49788829014879</v>
       </c>
       <c r="V11" t="n">
-        <v>195.9059181941681</v>
+        <v>195.9059181941665</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>217.3946284414446</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>237.8847604025006</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.3915983800867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>250.8875013875137</v>
+        <v>92.13333666954401</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>233.4265514950391</v>
       </c>
       <c r="D14" t="n">
-        <v>222.8367013447161</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>26.82216337269085</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>275.0297054657446</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>280.6526818299016</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>178.9149114046636</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>13.28406442165077</v>
       </c>
       <c r="T14" t="n">
-        <v>78.97624508410701</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>119.2750153991285</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>195.9059181941664</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>217.3946284414446</v>
       </c>
       <c r="X14" t="n">
-        <v>237.8847604025022</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23735,10 +23735,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>143.8604562606091</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>27.87638568075096</v>
+        <v>171.1077847121863</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.6290572291834905</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>54.80716883129952</v>
+        <v>171.7368419413697</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>116.9296731100611</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>2.340006468883112e-12</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>868951.3600855304</v>
+        <v>868951.3600855325</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>899566.016451643</v>
+        <v>899566.0164516405</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>998904.4523808399</v>
+        <v>998904.4523808373</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>998904.4523808397</v>
+        <v>998904.4523808374</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1025462.974470637</v>
+        <v>1025462.974470636</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1070311.734868518</v>
+        <v>1070311.734868517</v>
       </c>
     </row>
     <row r="14">
@@ -26314,46 +26314,46 @@
         <v>450601.9862943711</v>
       </c>
       <c r="C2" t="n">
-        <v>450601.9862943711</v>
+        <v>450601.986294371</v>
       </c>
       <c r="D2" t="n">
         <v>450601.9862943711</v>
       </c>
       <c r="E2" t="n">
-        <v>389857.2994776211</v>
+        <v>389857.2994776224</v>
       </c>
       <c r="F2" t="n">
         <v>398524.2180176141</v>
       </c>
       <c r="G2" t="n">
-        <v>444054.3344851625</v>
+        <v>444054.3344851624</v>
       </c>
       <c r="H2" t="n">
-        <v>444054.3344851626</v>
+        <v>444054.3344851624</v>
       </c>
       <c r="I2" t="n">
-        <v>451572.9734253553</v>
+        <v>451572.9734253556</v>
       </c>
       <c r="J2" t="n">
         <v>451572.9734253557</v>
       </c>
       <c r="K2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253555</v>
       </c>
       <c r="L2" t="n">
-        <v>451572.9734253557</v>
+        <v>451572.9734253558</v>
       </c>
       <c r="M2" t="n">
-        <v>451572.9734253554</v>
+        <v>451572.9734253555</v>
       </c>
       <c r="N2" t="n">
-        <v>451572.9734253557</v>
+        <v>451572.9734253556</v>
       </c>
       <c r="O2" t="n">
         <v>451572.9734253556</v>
       </c>
       <c r="P2" t="n">
-        <v>451572.9734253553</v>
+        <v>451572.9734253557</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>773445.4973893163</v>
+        <v>773445.4973893176</v>
       </c>
       <c r="F3" t="n">
-        <v>14616.10764127568</v>
+        <v>14616.10764127357</v>
       </c>
       <c r="G3" t="n">
         <v>63180.9960672856</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11767.78827713054</v>
+        <v>11767.78827713111</v>
       </c>
       <c r="J3" t="n">
-        <v>121596.6346431579</v>
+        <v>121596.6346431593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>63180.9960672856</v>
       </c>
       <c r="M3" t="n">
-        <v>81545.07701844774</v>
+        <v>81545.07701844769</v>
       </c>
       <c r="N3" t="n">
-        <v>12494.0821993631</v>
+        <v>12494.08219936135</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,19 +26424,19 @@
         <v>447024.6202723929</v>
       </c>
       <c r="E4" t="n">
-        <v>160268.6413469157</v>
+        <v>160268.6413469167</v>
       </c>
       <c r="F4" t="n">
         <v>167219.7577437323</v>
       </c>
       <c r="G4" t="n">
-        <v>214469.0148827531</v>
+        <v>214469.014882753</v>
       </c>
       <c r="H4" t="n">
         <v>214469.0148827531</v>
       </c>
       <c r="I4" t="n">
-        <v>220499.1782190939</v>
+        <v>220499.1782190941</v>
       </c>
       <c r="J4" t="n">
         <v>205827.8082342246</v>
@@ -26476,19 +26476,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>48210.17540892781</v>
+        <v>48210.17540892793</v>
       </c>
       <c r="F5" t="n">
-        <v>51311.67176384695</v>
+        <v>51311.67176384662</v>
       </c>
       <c r="G5" t="n">
-        <v>57951.12571182274</v>
+        <v>57951.12571182242</v>
       </c>
       <c r="H5" t="n">
-        <v>57951.12571182274</v>
+        <v>57951.12571182242</v>
       </c>
       <c r="I5" t="n">
-        <v>60641.7049712627</v>
+        <v>60641.70497126252</v>
       </c>
       <c r="J5" t="n">
         <v>77813.75395004352</v>
@@ -26500,16 +26500,16 @@
         <v>77813.75395004352</v>
       </c>
       <c r="M5" t="n">
-        <v>67620.1149160442</v>
+        <v>67620.11491604419</v>
       </c>
       <c r="N5" t="n">
-        <v>67620.11491604417</v>
+        <v>67620.11491604419</v>
       </c>
       <c r="O5" t="n">
         <v>67620.11491604417</v>
       </c>
       <c r="P5" t="n">
-        <v>67620.11491604417</v>
+        <v>67620.11491604419</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-30050.2339780218</v>
+        <v>-30054.64755588985</v>
       </c>
       <c r="C6" t="n">
-        <v>-30050.2339780218</v>
+        <v>-30054.64755589002</v>
       </c>
       <c r="D6" t="n">
-        <v>-30050.23397802174</v>
+        <v>-30054.64755588985</v>
       </c>
       <c r="E6" t="n">
-        <v>-592067.0146675388</v>
+        <v>-592347.5404582113</v>
       </c>
       <c r="F6" t="n">
-        <v>165376.6808687591</v>
+        <v>165135.5501623627</v>
       </c>
       <c r="G6" t="n">
-        <v>108453.1978233011</v>
+        <v>108419.0221917551</v>
       </c>
       <c r="H6" t="n">
-        <v>171634.1938905868</v>
+        <v>171600.0182590406</v>
       </c>
       <c r="I6" t="n">
-        <v>158664.3019578682</v>
+        <v>158664.3019578678</v>
       </c>
       <c r="J6" t="n">
-        <v>46334.77659792965</v>
+        <v>46334.77659792828</v>
       </c>
       <c r="K6" t="n">
-        <v>167931.4112410878</v>
+        <v>167931.4112410874</v>
       </c>
       <c r="L6" t="n">
-        <v>104750.415173802</v>
+        <v>104750.4151738021</v>
       </c>
       <c r="M6" t="n">
-        <v>89736.72409038994</v>
+        <v>89736.72409039013</v>
       </c>
       <c r="N6" t="n">
-        <v>158787.718909475</v>
+        <v>158787.7189094766</v>
       </c>
       <c r="O6" t="n">
-        <v>171281.801108838</v>
+        <v>171281.8011088379</v>
       </c>
       <c r="P6" t="n">
-        <v>171281.8011088376</v>
+        <v>171281.8011088381</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759684</v>
       </c>
       <c r="F2" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759685</v>
       </c>
       <c r="G2" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="H2" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="I2" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="J2" t="n">
+        <v>78.97624508410702</v>
+      </c>
+      <c r="K2" t="n">
+        <v>78.97624508410702</v>
+      </c>
+      <c r="L2" t="n">
         <v>78.97624508410701</v>
-      </c>
-      <c r="K2" t="n">
-        <v>78.97624508410701</v>
-      </c>
-      <c r="L2" t="n">
-        <v>78.97624508410699</v>
       </c>
       <c r="M2" t="n">
         <v>152.4748451782687</v>
       </c>
       <c r="N2" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="O2" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="P2" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
     </row>
     <row r="3">
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>360.5614752084835</v>
+        <v>360.5614752084834</v>
       </c>
       <c r="F4" t="n">
-        <v>411.5729284143904</v>
+        <v>411.5729284143828</v>
       </c>
       <c r="G4" t="n">
-        <v>411.5729284143904</v>
+        <v>411.5729284143828</v>
       </c>
       <c r="H4" t="n">
-        <v>411.5729284143904</v>
+        <v>411.5729284143828</v>
       </c>
       <c r="I4" t="n">
-        <v>455.8258767604426</v>
+        <v>455.8258767604372</v>
       </c>
       <c r="J4" t="n">
         <v>920.5666491196706</v>
@@ -26820,13 +26820,13 @@
         <v>920.5666491196706</v>
       </c>
       <c r="M4" t="n">
-        <v>651.2805825848777</v>
+        <v>651.2805825848775</v>
       </c>
       <c r="N4" t="n">
         <v>651.2805825848775</v>
       </c>
       <c r="O4" t="n">
-        <v>651.2805825848775</v>
+        <v>651.2805825848773</v>
       </c>
       <c r="P4" t="n">
         <v>651.2805825848775</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759684</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
         <v>78.97624508410701</v>
@@ -26938,10 +26938,10 @@
         <v>78.97624508410699</v>
       </c>
       <c r="M2" t="n">
-        <v>73.49860009416169</v>
+        <v>73.49860009416173</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>360.5614752084835</v>
+        <v>360.5614752084834</v>
       </c>
       <c r="F4" t="n">
-        <v>51.01145320590689</v>
+        <v>51.01145320589944</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.25294834605216</v>
+        <v>44.25294834605432</v>
       </c>
       <c r="J4" t="n">
-        <v>464.7407723592281</v>
+        <v>464.7407723592335</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>91.27540867369061</v>
+        <v>91.27540867369027</v>
       </c>
       <c r="N4" t="n">
-        <v>51.01145320590666</v>
+        <v>51.01145320589944</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759684</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
         <v>78.97624508410701</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>360.5614752084835</v>
+        <v>360.5614752084834</v>
       </c>
       <c r="N4" t="n">
-        <v>51.01145320590689</v>
+        <v>51.01145320589944</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759684</v>
       </c>
       <c r="C11" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759684</v>
       </c>
       <c r="D11" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759684</v>
       </c>
       <c r="E11" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759684</v>
       </c>
       <c r="F11" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759684</v>
       </c>
       <c r="G11" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759684</v>
       </c>
       <c r="H11" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759684</v>
       </c>
       <c r="I11" t="n">
         <v>102.3856512547171</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759684</v>
       </c>
       <c r="T11" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759684</v>
       </c>
       <c r="U11" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759684</v>
       </c>
       <c r="V11" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759684</v>
       </c>
       <c r="W11" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759684</v>
       </c>
       <c r="X11" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759684</v>
       </c>
       <c r="Y11" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759684</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>131.8463402759668</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759684</v>
       </c>
       <c r="D12" t="n">
-        <v>131.8463402759668</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>131.8463402759668</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>131.8463402759668</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>62.78431711688772</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>97.74744323520987</v>
+        <v>66.43318468952276</v>
       </c>
       <c r="I12" t="n">
-        <v>37.74776461340429</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,25 +28217,25 @@
         <v>7.018805009040477</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>131.8463402759684</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>131.8463402759684</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>131.8463402759684</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>131.8463402759684</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>131.8463402759684</v>
       </c>
       <c r="X12" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759684</v>
       </c>
       <c r="Y12" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759684</v>
       </c>
     </row>
     <row r="13">
@@ -28245,25 +28245,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759684</v>
       </c>
       <c r="C13" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759684</v>
       </c>
       <c r="D13" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759684</v>
       </c>
       <c r="E13" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759684</v>
       </c>
       <c r="F13" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759684</v>
       </c>
       <c r="G13" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759684</v>
       </c>
       <c r="H13" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759684</v>
       </c>
       <c r="I13" t="n">
         <v>117.6295031199658</v>
@@ -28293,28 +28293,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>120.7448646060484</v>
       </c>
       <c r="S13" t="n">
-        <v>46.8700487846846</v>
+        <v>131.8463402759684</v>
       </c>
       <c r="T13" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759684</v>
       </c>
       <c r="U13" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759684</v>
       </c>
       <c r="V13" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759684</v>
       </c>
       <c r="W13" t="n">
-        <v>131.8463402759668</v>
+        <v>57.971524454584</v>
       </c>
       <c r="X13" t="n">
-        <v>131.8463402759668</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759684</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759685</v>
       </c>
       <c r="C14" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759685</v>
       </c>
       <c r="D14" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759685</v>
       </c>
       <c r="E14" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759685</v>
       </c>
       <c r="F14" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759685</v>
       </c>
       <c r="G14" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759685</v>
       </c>
       <c r="H14" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759685</v>
       </c>
       <c r="I14" t="n">
         <v>102.3856512547171</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759685</v>
       </c>
       <c r="T14" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759685</v>
       </c>
       <c r="U14" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759685</v>
       </c>
       <c r="V14" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759685</v>
       </c>
       <c r="W14" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759685</v>
       </c>
       <c r="X14" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759685</v>
       </c>
       <c r="Y14" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759685</v>
       </c>
     </row>
     <row r="15">
@@ -28403,16 +28403,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759685</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>131.8463402759685</v>
       </c>
       <c r="D15" t="n">
-        <v>131.8463402759668</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>131.8463402759668</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>97.74744323520987</v>
       </c>
       <c r="I15" t="n">
         <v>37.74776461340429</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>7.018805009040477</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>131.8463402759668</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>101.4316580356216</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>131.8463402759668</v>
+        <v>128.5117500673593</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>131.8463402759685</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>131.8463402759685</v>
       </c>
       <c r="Y15" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759685</v>
       </c>
     </row>
     <row r="16">
@@ -28482,28 +28482,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759685</v>
       </c>
       <c r="C16" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759685</v>
       </c>
       <c r="D16" t="n">
-        <v>57.97152445460296</v>
+        <v>131.8463402759685</v>
       </c>
       <c r="E16" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759685</v>
       </c>
       <c r="F16" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759685</v>
       </c>
       <c r="G16" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759685</v>
       </c>
       <c r="H16" t="n">
-        <v>131.8463402759668</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>117.6295031199658</v>
+        <v>43.75468729858102</v>
       </c>
       <c r="J16" t="n">
         <v>4.443310181571945</v>
@@ -28533,25 +28533,25 @@
         <v>120.7448646060484</v>
       </c>
       <c r="S16" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759685</v>
       </c>
       <c r="T16" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759685</v>
       </c>
       <c r="U16" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759685</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>131.8463402759685</v>
       </c>
       <c r="W16" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759685</v>
       </c>
       <c r="X16" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759685</v>
       </c>
       <c r="Y16" t="n">
-        <v>131.8463402759668</v>
+        <v>131.8463402759685</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="C17" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="D17" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="E17" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="F17" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="G17" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="H17" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="I17" t="n">
         <v>102.3856512547171</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>145.1304046976192</v>
+        <v>145.1304046976176</v>
       </c>
       <c r="T17" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="U17" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="V17" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="W17" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="X17" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="Y17" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
     </row>
     <row r="18">
@@ -28646,19 +28646,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.843397168527</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>97.74744323520987</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28691,19 +28691,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>143.8191001499556</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>194.1181924004609</v>
       </c>
       <c r="U18" t="n">
-        <v>102.6881653377106</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>169.4248887908604</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -28719,19 +28719,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.7333291472126</v>
@@ -28770,25 +28770,25 @@
         <v>120.7448646060484</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>202.0991848100739</v>
       </c>
       <c r="T19" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="U19" t="n">
-        <v>210.8225853600738</v>
+        <v>177.543995588921</v>
       </c>
       <c r="V19" t="n">
-        <v>136.5911732515629</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="Y19" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="C20" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="D20" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="E20" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="F20" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="G20" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="H20" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="I20" t="n">
         <v>102.3856512547171</v>
@@ -28852,22 +28852,22 @@
         <v>145.1304046976192</v>
       </c>
       <c r="T20" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="U20" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="V20" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="W20" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="X20" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="Y20" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
     </row>
     <row r="21">
@@ -28877,13 +28877,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -28898,7 +28898,7 @@
         <v>97.74744323520987</v>
       </c>
       <c r="I21" t="n">
-        <v>37.74776461340429</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,19 +28925,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.018805009040477</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>143.8191001499556</v>
       </c>
       <c r="T21" t="n">
-        <v>86.43578340854182</v>
+        <v>194.1181924004609</v>
       </c>
       <c r="U21" t="n">
-        <v>210.8225853600738</v>
+        <v>44.75108213619666</v>
       </c>
       <c r="V21" t="n">
-        <v>210.8225853600738</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>86.6070091229145</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -29007,25 +29007,25 @@
         <v>120.7448646060484</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>74.02185003960037</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="U22" t="n">
-        <v>210.8225853600738</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="Y22" t="n">
-        <v>210.8225853600738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="C23" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="D23" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="E23" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="F23" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="G23" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="H23" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="I23" t="n">
         <v>102.3856512547171</v>
@@ -29089,22 +29089,22 @@
         <v>145.1304046976192</v>
       </c>
       <c r="T23" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="U23" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="V23" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="W23" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="X23" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="Y23" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
     </row>
     <row r="24">
@@ -29126,7 +29126,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>142.2259197868693</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>135.843397168527</v>
@@ -29171,7 +29171,7 @@
         <v>194.1181924004609</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>142.2259197868901</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -29193,22 +29193,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>88.69781450803403</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.7333291472126</v>
       </c>
       <c r="H25" t="n">
         <v>151.0455188110877</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>120.7448646060484</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>202.0991848100739</v>
+        <v>27.51989354702087</v>
       </c>
       <c r="T25" t="n">
-        <v>210.8225853600738</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="V25" t="n">
-        <v>210.8225853600738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>210.8225853600738</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
       <c r="Y25" t="n">
-        <v>210.8225853600738</v>
+        <v>210.8225853600755</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="C26" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="D26" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="E26" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="F26" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="G26" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="H26" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="I26" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="T26" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="U26" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="V26" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="W26" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="X26" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="Y26" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="C28" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="D28" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="E28" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="F28" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="G28" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="H28" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="I28" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="J28" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="K28" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="L28" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="M28" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410632</v>
       </c>
       <c r="N28" t="n">
-        <v>78.97624508410703</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="O28" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="P28" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="R28" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="S28" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="T28" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="U28" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="V28" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="W28" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="X28" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="Y28" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="C29" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="D29" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="E29" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="F29" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="G29" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="H29" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="I29" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="T29" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="U29" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="V29" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="W29" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="X29" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="Y29" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="C31" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="D31" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="E31" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="F31" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="G31" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="H31" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="I31" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="J31" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="K31" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="L31" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="M31" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="N31" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="O31" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410647</v>
       </c>
       <c r="P31" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="R31" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="S31" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="T31" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="U31" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="V31" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="W31" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="X31" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
       <c r="Y31" t="n">
-        <v>78.97624508410701</v>
+        <v>78.97624508410702</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="C32" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="D32" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="E32" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="F32" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="G32" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="H32" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="I32" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="T32" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="U32" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="V32" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="W32" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="X32" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="Y32" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="C34" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="D34" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="E34" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="F34" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="G34" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="H34" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="I34" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="J34" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="K34" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="L34" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="M34" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="N34" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="O34" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="P34" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.97624508410735</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="R34" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="S34" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="T34" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="U34" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="V34" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="W34" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="X34" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.97624508410699</v>
+        <v>78.97624508410701</v>
       </c>
     </row>
     <row r="35">
@@ -30150,13 +30150,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>138.2058443793647</v>
+        <v>152.4748451782687</v>
       </c>
       <c r="H37" t="n">
         <v>151.0455188110877</v>
@@ -30165,7 +30165,7 @@
         <v>117.6295031199658</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>4.443310181571945</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30192,7 +30192,7 @@
         <v>120.7448646060484</v>
       </c>
       <c r="S37" t="n">
-        <v>152.4748451782687</v>
+        <v>120.6678545107555</v>
       </c>
       <c r="T37" t="n">
         <v>152.4748451782687</v>
@@ -30201,10 +30201,10 @@
         <v>152.4748451782687</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>152.4748451782687</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>152.4748451782687</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="C38" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="D38" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="E38" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="F38" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="G38" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="H38" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="I38" t="n">
         <v>102.3856512547171</v>
@@ -30274,22 +30274,22 @@
         <v>145.1304046976192</v>
       </c>
       <c r="T38" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="U38" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="V38" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="W38" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="X38" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="Y38" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
     </row>
     <row r="39">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="C40" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -30393,10 +30393,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>105.0465374399637</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>105.0465374399629</v>
       </c>
       <c r="I40" t="n">
         <v>117.6295031199658</v>
@@ -30429,25 +30429,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="T40" t="n">
-        <v>152.4748451782687</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="V40" t="n">
-        <v>152.4748451782687</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="X40" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="Y40" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="C41" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="D41" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="E41" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="F41" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="G41" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="H41" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="I41" t="n">
         <v>102.3856512547171</v>
@@ -30511,22 +30511,22 @@
         <v>145.1304046976192</v>
       </c>
       <c r="T41" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="U41" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="V41" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="W41" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="X41" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="Y41" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
     </row>
     <row r="42">
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>5.710987238671805e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>133.7625341977929</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="H43" t="n">
-        <v>151.0455188110877</v>
+        <v>126.2923252989117</v>
       </c>
       <c r="I43" t="n">
         <v>117.6295031199658</v>
@@ -30666,25 +30666,25 @@
         <v>120.7448646060484</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="T43" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="U43" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="V43" t="n">
-        <v>152.4748451782687</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>152.4748451782687</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="Y43" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="C44" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="D44" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="E44" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="F44" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="G44" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="H44" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="I44" t="n">
         <v>102.3856512547171</v>
@@ -30748,22 +30748,22 @@
         <v>145.1304046976192</v>
       </c>
       <c r="T44" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="U44" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="V44" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="W44" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="X44" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="Y44" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
     </row>
     <row r="45">
@@ -30852,22 +30852,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="C46" t="n">
-        <v>152.4748451782687</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>126.708737042455</v>
       </c>
       <c r="G46" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="H46" t="n">
         <v>151.0455188110877</v>
@@ -30903,25 +30903,25 @@
         <v>120.7448646060484</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="T46" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="U46" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="V46" t="n">
-        <v>120.667854510756</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="W46" t="n">
-        <v>152.4748451782687</v>
+        <v>152.4748451782688</v>
       </c>
       <c r="X46" t="n">
-        <v>152.4748451782687</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>152.4748451782687</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>14.89081546263145</v>
+        <v>140.9818508030403</v>
       </c>
       <c r="K12" t="n">
         <v>104.395042798742</v>
@@ -35504,7 +35504,7 @@
         <v>214.3204632380231</v>
       </c>
       <c r="P12" t="n">
-        <v>358.625091777082</v>
+        <v>232.5340564366729</v>
       </c>
       <c r="Q12" t="n">
         <v>51.50722734061108</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>226.0125513624925</v>
+        <v>56.91593619041873</v>
       </c>
       <c r="K14" t="n">
         <v>136.5532629463117</v>
       </c>
       <c r="L14" t="n">
-        <v>206.6809044775987</v>
+        <v>408.6656484847966</v>
       </c>
       <c r="M14" t="n">
         <v>261.9616601298295</v>
@@ -35665,7 +35665,7 @@
         <v>171.9447847412985</v>
       </c>
       <c r="Q14" t="n">
-        <v>113.3521613629698</v>
+        <v>80.46403252781587</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35735,16 +35735,16 @@
         <v>237.9621594677756</v>
       </c>
       <c r="N15" t="n">
-        <v>411.5729284143904</v>
+        <v>258.8144965339662</v>
       </c>
       <c r="O15" t="n">
-        <v>343.5981149678663</v>
+        <v>214.3204632380231</v>
       </c>
       <c r="P15" t="n">
-        <v>152.4827168336333</v>
+        <v>224.4415127080215</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.50722734061108</v>
+        <v>261.5845150764602</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>226.0125513624925</v>
       </c>
       <c r="K17" t="n">
-        <v>136.5532629463117</v>
+        <v>169.4413917814359</v>
       </c>
       <c r="L17" t="n">
         <v>206.6809044775987</v>
@@ -35902,7 +35902,7 @@
         <v>171.9447847412985</v>
       </c>
       <c r="Q17" t="n">
-        <v>113.3521613629698</v>
+        <v>80.46403252781587</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>214.3204632380231</v>
       </c>
       <c r="P18" t="n">
-        <v>224.4415127080514</v>
+        <v>224.4415127080215</v>
       </c>
       <c r="Q18" t="n">
         <v>261.5845150764602</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>226.0125513624925</v>
+        <v>56.91593619041873</v>
       </c>
       <c r="K20" t="n">
         <v>136.5532629463117</v>
@@ -36136,10 +36136,10 @@
         <v>242.2962932411109</v>
       </c>
       <c r="P20" t="n">
-        <v>171.9447847412985</v>
+        <v>373.9295287484963</v>
       </c>
       <c r="Q20" t="n">
-        <v>113.3521613629698</v>
+        <v>80.46403252781587</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>140.9818508030403</v>
       </c>
       <c r="K21" t="n">
-        <v>104.395042798742</v>
+        <v>368.8602798113207</v>
       </c>
       <c r="L21" t="n">
-        <v>187.1624638026384</v>
+        <v>204.733310400297</v>
       </c>
       <c r="M21" t="n">
         <v>237.9621594677756</v>
@@ -36215,10 +36215,10 @@
         <v>214.3204632380231</v>
       </c>
       <c r="P21" t="n">
-        <v>224.4415127080514</v>
+        <v>152.4827168336333</v>
       </c>
       <c r="Q21" t="n">
-        <v>261.5845150764602</v>
+        <v>51.50722734061108</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>56.91593619041873</v>
+        <v>88.60209171864409</v>
       </c>
       <c r="K23" t="n">
-        <v>136.5532629463117</v>
+        <v>455.8258767604372</v>
       </c>
       <c r="L23" t="n">
-        <v>455.8258767604426</v>
+        <v>206.6809044775987</v>
       </c>
       <c r="M23" t="n">
-        <v>390.0252273254504</v>
+        <v>261.9616601298295</v>
       </c>
       <c r="N23" t="n">
         <v>270.8608861670855</v>
@@ -36379,7 +36379,7 @@
         <v>80.46403252781587</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>26.24977013609265</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>14.89081546263145</v>
+        <v>140.9818508030403</v>
       </c>
       <c r="K24" t="n">
         <v>368.8602798113207</v>
@@ -36449,13 +36449,13 @@
         <v>258.8144965339662</v>
       </c>
       <c r="O24" t="n">
-        <v>323.1288529115084</v>
+        <v>214.3204632380231</v>
       </c>
       <c r="P24" t="n">
-        <v>152.4827168336333</v>
+        <v>345.2773589025373</v>
       </c>
       <c r="Q24" t="n">
-        <v>261.5845150764602</v>
+        <v>51.50722734061108</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>226.0125513624925</v>
       </c>
       <c r="K26" t="n">
-        <v>287.2140273678908</v>
+        <v>460.6986755174765</v>
       </c>
       <c r="L26" t="n">
         <v>624.3421190280492</v>
       </c>
       <c r="M26" t="n">
-        <v>711.475193622662</v>
+        <v>627.2889915774849</v>
       </c>
       <c r="N26" t="n">
-        <v>708.2078105790697</v>
+        <v>270.8608861670855</v>
       </c>
       <c r="O26" t="n">
         <v>623.0964745038563</v>
       </c>
       <c r="P26" t="n">
-        <v>171.9447847412985</v>
+        <v>493.7434929127812</v>
       </c>
       <c r="Q26" t="n">
         <v>292.7790231877206</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>26.24977013609265</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>24.53272311828949</v>
+        <v>140.9818508030403</v>
       </c>
       <c r="K27" t="n">
         <v>368.8602798113207</v>
       </c>
       <c r="L27" t="n">
-        <v>558.0028091060976</v>
+        <v>187.1624638026384</v>
       </c>
       <c r="M27" t="n">
         <v>237.9621594677756</v>
       </c>
       <c r="N27" t="n">
-        <v>258.8144965339662</v>
+        <v>696.9907456935548</v>
       </c>
       <c r="O27" t="n">
-        <v>608.1827825147527</v>
+        <v>214.3204632380231</v>
       </c>
       <c r="P27" t="n">
         <v>470.9454854735704</v>
       </c>
       <c r="Q27" t="n">
-        <v>51.50722734061108</v>
+        <v>261.5845150764602</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.53293490253506</v>
+        <v>74.53293490253508</v>
       </c>
       <c r="K28" t="n">
         <v>202.8228414375463</v>
@@ -36759,7 +36759,7 @@
         <v>293.5445572055057</v>
       </c>
       <c r="M28" t="n">
-        <v>315.7025092506465</v>
+        <v>315.7025092506458</v>
       </c>
       <c r="N28" t="n">
         <v>315.5631993352083</v>
@@ -36771,7 +36771,7 @@
         <v>228.3618808073496</v>
       </c>
       <c r="Q28" t="n">
-        <v>98.12525724866745</v>
+        <v>98.12525724866747</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>56.91593619041873</v>
+        <v>180.2427285342563</v>
       </c>
       <c r="K29" t="n">
-        <v>136.5532629463117</v>
+        <v>460.6986755174765</v>
       </c>
       <c r="L29" t="n">
-        <v>622.3007904502192</v>
+        <v>624.3421190280492</v>
       </c>
       <c r="M29" t="n">
-        <v>711.475193622662</v>
+        <v>261.9616601298295</v>
       </c>
       <c r="N29" t="n">
         <v>708.2078105790697</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>14.89081546263145</v>
+        <v>33.25363598071129</v>
       </c>
       <c r="K30" t="n">
         <v>104.395042798742</v>
       </c>
       <c r="L30" t="n">
-        <v>558.0028091060976</v>
+        <v>187.1624638026384</v>
       </c>
       <c r="M30" t="n">
         <v>703.6672232177755</v>
@@ -36923,7 +36923,7 @@
         <v>738.1568708775197</v>
       </c>
       <c r="O30" t="n">
-        <v>255.7052577293735</v>
+        <v>608.1827825147527</v>
       </c>
       <c r="P30" t="n">
         <v>152.4827168336333</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.53293490253506</v>
+        <v>74.53293490253508</v>
       </c>
       <c r="K31" t="n">
         <v>202.8228414375463</v>
@@ -36999,16 +36999,16 @@
         <v>315.7025092506465</v>
       </c>
       <c r="N31" t="n">
-        <v>315.5631993352082</v>
+        <v>315.5631993352083</v>
       </c>
       <c r="O31" t="n">
-        <v>281.3245137659168</v>
+        <v>281.3245137659163</v>
       </c>
       <c r="P31" t="n">
         <v>228.3618808073496</v>
       </c>
       <c r="Q31" t="n">
-        <v>98.12525724866745</v>
+        <v>98.12525724866747</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>56.91593619041873</v>
+        <v>226.0125513624925</v>
       </c>
       <c r="K32" t="n">
-        <v>460.6986755174765</v>
+        <v>414.9288526892403</v>
       </c>
       <c r="L32" t="n">
         <v>624.3421190280492</v>
       </c>
       <c r="M32" t="n">
-        <v>711.475193622662</v>
+        <v>261.9616601298295</v>
       </c>
       <c r="N32" t="n">
         <v>708.2078105790697</v>
@@ -37084,10 +37084,10 @@
         <v>623.0964745038563</v>
       </c>
       <c r="P32" t="n">
-        <v>171.9447847412985</v>
+        <v>493.7434929127812</v>
       </c>
       <c r="Q32" t="n">
-        <v>288.3909902102083</v>
+        <v>292.7790231877206</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37157,16 +37157,16 @@
         <v>703.6672232177755</v>
       </c>
       <c r="N33" t="n">
-        <v>258.8144965339662</v>
+        <v>738.1568708775197</v>
       </c>
       <c r="O33" t="n">
-        <v>577.3479210005993</v>
+        <v>608.1827825147527</v>
       </c>
       <c r="P33" t="n">
-        <v>470.9454854735704</v>
+        <v>170.8455373517131</v>
       </c>
       <c r="Q33" t="n">
-        <v>261.5845150764602</v>
+        <v>51.50722734061108</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.53293490253505</v>
+        <v>74.53293490253506</v>
       </c>
       <c r="K34" t="n">
         <v>202.8228414375463</v>
@@ -37245,7 +37245,7 @@
         <v>228.3618808073496</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.12525724866779</v>
+        <v>98.12525724866745</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>56.91593619041873</v>
+        <v>226.0125513624925</v>
       </c>
       <c r="K35" t="n">
         <v>136.5532629463117</v>
       </c>
       <c r="L35" t="n">
-        <v>624.3421190280492</v>
+        <v>206.6809044775987</v>
       </c>
       <c r="M35" t="n">
-        <v>615.010952106502</v>
+        <v>261.9616601298295</v>
       </c>
       <c r="N35" t="n">
-        <v>651.2805825848777</v>
+        <v>337.9805938457932</v>
       </c>
       <c r="O35" t="n">
-        <v>242.2962932411109</v>
+        <v>623.0964745038563</v>
       </c>
       <c r="P35" t="n">
-        <v>171.9447847412985</v>
+        <v>493.7434929127812</v>
       </c>
       <c r="Q35" t="n">
-        <v>80.46403252781587</v>
+        <v>292.7790231877206</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>140.9818508030403</v>
       </c>
       <c r="K36" t="n">
-        <v>104.395042798742</v>
+        <v>368.8602798113207</v>
       </c>
       <c r="L36" t="n">
-        <v>558.0028091060976</v>
+        <v>231.4763936854975</v>
       </c>
       <c r="M36" t="n">
         <v>237.9621594677756</v>
@@ -37403,7 +37403,7 @@
         <v>470.9454854735704</v>
       </c>
       <c r="Q36" t="n">
-        <v>199.5233366684394</v>
+        <v>261.5845150764602</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,16 +37625,16 @@
         <v>368.8602798113207</v>
       </c>
       <c r="L39" t="n">
-        <v>187.1624638026384</v>
+        <v>231.4763936854975</v>
       </c>
       <c r="M39" t="n">
-        <v>651.2805825848775</v>
+        <v>237.9621594677756</v>
       </c>
       <c r="N39" t="n">
         <v>258.8144965339662</v>
       </c>
       <c r="O39" t="n">
-        <v>239.1782892805101</v>
+        <v>608.1827825147527</v>
       </c>
       <c r="P39" t="n">
         <v>470.9454854735704</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>226.0125513624925</v>
+        <v>56.91593619041873</v>
       </c>
       <c r="K41" t="n">
         <v>460.6986755174765</v>
       </c>
       <c r="L41" t="n">
-        <v>206.6809044775987</v>
+        <v>624.3421190280492</v>
       </c>
       <c r="M41" t="n">
-        <v>261.9616601298295</v>
+        <v>290.4850546903826</v>
       </c>
       <c r="N41" t="n">
         <v>270.8608861670855</v>
       </c>
       <c r="O41" t="n">
-        <v>366.0707696113993</v>
+        <v>623.0964745038563</v>
       </c>
       <c r="P41" t="n">
-        <v>493.7434929127812</v>
+        <v>171.9447847412985</v>
       </c>
       <c r="Q41" t="n">
-        <v>292.7790231877206</v>
+        <v>80.46403252781587</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -38026,19 +38026,19 @@
         <v>651.2805825848775</v>
       </c>
       <c r="N44" t="n">
-        <v>270.8608861670855</v>
+        <v>651.2805825848775</v>
       </c>
       <c r="O44" t="n">
-        <v>274.6474895914235</v>
+        <v>454.5912621411114</v>
       </c>
       <c r="P44" t="n">
-        <v>493.7434929127812</v>
+        <v>171.9447847412985</v>
       </c>
       <c r="Q44" t="n">
-        <v>292.7790231877206</v>
+        <v>80.46403252781587</v>
       </c>
       <c r="R44" t="n">
-        <v>26.24977013609265</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,10 +38096,10 @@
         <v>140.9818508030403</v>
       </c>
       <c r="K45" t="n">
-        <v>368.8602798113207</v>
+        <v>104.395042798742</v>
       </c>
       <c r="L45" t="n">
-        <v>187.1624638026384</v>
+        <v>421.9383132871021</v>
       </c>
       <c r="M45" t="n">
         <v>237.9621594677756</v>
@@ -38108,7 +38108,7 @@
         <v>651.2805825848775</v>
       </c>
       <c r="O45" t="n">
-        <v>578.4933949866379</v>
+        <v>608.1827825147527</v>
       </c>
       <c r="P45" t="n">
         <v>152.4827168336333</v>
